--- a/segmentation/closure_by_prod_type.xlsx
+++ b/segmentation/closure_by_prod_type.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="22695" windowHeight="14505"/>
+    <workbookView xWindow="630" yWindow="510" windowWidth="15015" windowHeight="24705"/>
   </bookViews>
   <sheets>
-    <sheet name="pivot_table" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="raw_data_by_prod" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_AMO_UniqueIdentifier" hidden="1">"'97d0a055-cc20-4e44-9208-a7d1db4e5644'"</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="237">
   <si>
     <t>cpr</t>
   </si>
@@ -582,13 +585,164 @@
   </si>
   <si>
     <t>Sum of cpr</t>
+  </si>
+  <si>
+    <t>Big change in Floor plan</t>
+  </si>
+  <si>
+    <t>new_id</t>
+  </si>
+  <si>
+    <t>CSegment</t>
+  </si>
+  <si>
+    <t>PSegment</t>
+  </si>
+  <si>
+    <t>s_face_amt</t>
+  </si>
+  <si>
+    <t>s_curr_bal</t>
+  </si>
+  <si>
+    <t>n_face_amt</t>
+  </si>
+  <si>
+    <t>n_curr_bal</t>
+  </si>
+  <si>
+    <t>20338928|281Seg 1</t>
+  </si>
+  <si>
+    <t>Seg Ntr1</t>
+  </si>
+  <si>
+    <t>Prod4 Floor Plan</t>
+  </si>
+  <si>
+    <t>40763004|18Seg 1</t>
+  </si>
+  <si>
+    <t>40763145|18Seg 1</t>
+  </si>
+  <si>
+    <t>40771684|26Seg 1</t>
+  </si>
+  <si>
+    <t>50703048|34Seg 1</t>
+  </si>
+  <si>
+    <t>60930903|26Seg 1</t>
+  </si>
+  <si>
+    <t>51568440|18Seg 1</t>
+  </si>
+  <si>
+    <t>60881957|26Seg 1</t>
+  </si>
+  <si>
+    <t>60900245|18Seg 1</t>
+  </si>
+  <si>
+    <t>20363694|117Seg 1</t>
+  </si>
+  <si>
+    <t>6992070|18Seg 1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>20150463|208Seg 1</t>
+  </si>
+  <si>
+    <t>20150489|26Seg 1</t>
+  </si>
+  <si>
+    <t>20150497|133Seg 1</t>
+  </si>
+  <si>
+    <t>20150513|273Seg 1</t>
+  </si>
+  <si>
+    <t>20338910|141Seg 1</t>
+  </si>
+  <si>
+    <t>20341773|133Seg 1</t>
+  </si>
+  <si>
+    <t>21211348|18Seg 1</t>
+  </si>
+  <si>
+    <t>21404794|26Seg 1</t>
+  </si>
+  <si>
+    <t>50314663|42Seg 1</t>
+  </si>
+  <si>
+    <t>&lt;- No loans closed ou tof 247 loans (Closure rate: 0%)</t>
+  </si>
+  <si>
+    <t>&lt;- 6 loans closed out of 254 loans (Closure rate: 28%)</t>
+  </si>
+  <si>
+    <t>&lt;- 3 loans closed out of 251 loans (Closure rate: 3%)</t>
+  </si>
+  <si>
+    <t>&lt;- 2 loans closed out of 251 loans (Closure rate 5%)</t>
+  </si>
+  <si>
+    <t>&lt;- 10 loans closed out of 250 loans (Closure rate: 36%)</t>
+  </si>
+  <si>
+    <t>&lt;- 10 loans closed out of 244 loans (Closure rate: 29%)</t>
+  </si>
+  <si>
+    <t>30849905|18Seg 1</t>
+  </si>
+  <si>
+    <t>51650941|26Seg 1</t>
+  </si>
+  <si>
+    <t>6952728|18Seg 1</t>
+  </si>
+  <si>
+    <t>6952744|18Seg 1</t>
+  </si>
+  <si>
+    <t>6952769|18Seg 1</t>
+  </si>
+  <si>
+    <t>6955747|18Seg 1</t>
+  </si>
+  <si>
+    <t>6972247|26Seg 1</t>
+  </si>
+  <si>
+    <t>6995289|18Seg 1</t>
+  </si>
+  <si>
+    <t>7007027|18Seg 1</t>
+  </si>
+  <si>
+    <t>7027801|18Seg 1</t>
+  </si>
+  <si>
+    <t>21437620|18Seg 1</t>
+  </si>
+  <si>
+    <t>&lt;- 1 loan closed out of 238 loans (Closure rate: 0.1%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -596,13 +750,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -614,126 +797,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -759,7 +850,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[closure_by_prod_type.xlsx]pivot_table!PivotTable1</c:name>
+    <c:name>[closure_by_prod_type.xlsx]Sheet1!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -927,7 +1018,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$B$3:$B$4</c:f>
+              <c:f>Sheet1!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -939,7 +1030,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -965,7 +1056,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$B$5:$B$11</c:f>
+              <c:f>Sheet1!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -973,19 +1064,19 @@
                   <c:v>4.9302377117090845</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.84969082891698</c:v>
+                  <c:v>22.348144321330921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.057507748295187</c:v>
+                  <c:v>14.30995432067772</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>62.683493068740304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.030536488499664</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.442572731947109</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>83.296012045716125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,7 +1087,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$C$3:$C$4</c:f>
+              <c:f>Sheet1!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1008,7 +1099,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1034,7 +1125,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$C$5:$C$11</c:f>
+              <c:f>Sheet1!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1042,7 +1133,7 @@
                   <c:v>41.005487279574737</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.892886356857296</c:v>
+                  <c:v>17.524185049039165</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20.452807172218158</c:v>
@@ -1051,7 +1142,7 @@
                   <c:v>85.162452760268906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.218695279664168</c:v>
+                  <c:v>21.453143110038965</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.4802524868308184</c:v>
@@ -1065,7 +1156,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$D$3:$D$4</c:f>
+              <c:f>Sheet1!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1077,7 +1168,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1103,7 +1194,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$D$5:$D$11</c:f>
+              <c:f>Sheet1!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1111,19 +1202,19 @@
                   <c:v>80.333992551022277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.982739346471107</c:v>
+                  <c:v>28.338094587120043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.039082872571328</c:v>
+                  <c:v>3.8163651935195331</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>93.827485512601754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.205071116918546</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.342992846102348</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.345575731853394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,7 +1225,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$E$3:$E$4</c:f>
+              <c:f>Sheet1!$E$3:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1146,7 +1237,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1172,7 +1263,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$E$5:$E$11</c:f>
+              <c:f>Sheet1!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1180,7 +1271,7 @@
                   <c:v>72.796362330600928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.507311084158594</c:v>
+                  <c:v>18.148837141352214</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.776029238625009</c:v>
@@ -1189,7 +1280,7 @@
                   <c:v>48.821917598895425</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.300064664843998</c:v>
+                  <c:v>19.79356785866052</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>15.264783086445977</c:v>
@@ -1203,7 +1294,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$F$3:$F$4</c:f>
+              <c:f>Sheet1!$F$3:$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1215,7 +1306,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1241,7 +1332,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$F$5:$F$11</c:f>
+              <c:f>Sheet1!$F$5:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1249,16 +1340,16 @@
                   <c:v>57.350156993243282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.306746678054459</c:v>
+                  <c:v>27.569007301341141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.944566992704878</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>78.193330064058429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.512803248734198</c:v>
+                  <c:v>28.622516783557074</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.122983280702623</c:v>
@@ -1272,7 +1363,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$G$3:$G$4</c:f>
+              <c:f>Sheet1!$G$3:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1284,7 +1375,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1310,7 +1401,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$G$5:$G$11</c:f>
+              <c:f>Sheet1!$G$5:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1318,7 +1409,7 @@
                   <c:v>65.010259858862682</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.846569113030611</c:v>
+                  <c:v>18.662587223820381</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.3601561110406575</c:v>
@@ -1327,7 +1418,7 @@
                   <c:v>55.445511345011454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.97513232271384</c:v>
+                  <c:v>19.789261420474237</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25.348253011134858</c:v>
@@ -1341,7 +1432,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$H$3:$H$4</c:f>
+              <c:f>Sheet1!$H$3:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1353,7 +1444,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1379,7 +1470,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$H$5:$H$11</c:f>
+              <c:f>Sheet1!$H$5:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1387,19 +1478,19 @@
                   <c:v>53.210897222918916</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.251408846179901</c:v>
+                  <c:v>12.849412882348144</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>74.522106523949034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.277213045533633</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.039797878963324</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.981070174310091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1410,7 +1501,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$I$3:$I$4</c:f>
+              <c:f>Sheet1!$I$3:$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1422,7 +1513,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1448,7 +1539,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$I$5:$I$11</c:f>
+              <c:f>Sheet1!$I$5:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1456,7 +1547,7 @@
                   <c:v>53.141735793829461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.348848353662387</c:v>
+                  <c:v>21.844596477578715</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.1647361784181141</c:v>
@@ -1465,7 +1556,7 @@
                   <c:v>46.00765760009029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.456561240974903</c:v>
+                  <c:v>21.986044575167263</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.072832392373533</c:v>
@@ -1479,7 +1570,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$J$3:$J$4</c:f>
+              <c:f>Sheet1!$J$3:$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1491,7 +1582,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1517,7 +1608,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$J$5:$J$11</c:f>
+              <c:f>Sheet1!$J$5:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1525,19 +1616,19 @@
                   <c:v>73.14746443014829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.543970639974223</c:v>
+                  <c:v>15.851617512357674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.454310685942339</c:v>
+                  <c:v>16.312974154448746</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>88.36333052063344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.042289092877375</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.701663012350103</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.508127592424671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,7 +1639,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$K$3:$K$4</c:f>
+              <c:f>Sheet1!$K$3:$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1560,7 +1651,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1586,7 +1677,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$K$5:$K$11</c:f>
+              <c:f>Sheet1!$K$5:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1594,7 +1685,7 @@
                   <c:v>65.429489422729489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.446779403993496</c:v>
+                  <c:v>17.928909001277681</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.2562975281925892</c:v>
@@ -1603,7 +1694,7 @@
                   <c:v>78.577349130930799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.739174032418383</c:v>
+                  <c:v>20.944855948726715</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.68923386285271</c:v>
@@ -1617,7 +1708,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$L$3:$L$4</c:f>
+              <c:f>Sheet1!$L$3:$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1629,7 +1720,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1655,7 +1746,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$L$5:$L$11</c:f>
+              <c:f>Sheet1!$L$5:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1663,16 +1754,16 @@
                   <c:v>91.040377728725502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.131651531348037</c:v>
+                  <c:v>19.29408520333774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.064303630893761</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>62.985294665712267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.967988076965426</c:v>
+                  <c:v>21.822293039889416</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.314984285900364</c:v>
@@ -1686,7 +1777,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$M$3:$M$4</c:f>
+              <c:f>Sheet1!$M$3:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1698,7 +1789,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1724,7 +1815,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$M$5:$M$11</c:f>
+              <c:f>Sheet1!$M$5:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1732,19 +1823,19 @@
                   <c:v>75.946562427530466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.210812205480206</c:v>
+                  <c:v>14.516687087441527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.614842178842753</c:v>
+                  <c:v>28.431728052179029</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>44.2493094171857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.470594484341074</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.265699548308714</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>98.612986144910948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,7 +1846,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$N$3:$N$4</c:f>
+              <c:f>Sheet1!$N$3:$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1767,7 +1858,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1793,7 +1884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$N$5:$N$11</c:f>
+              <c:f>Sheet1!$N$5:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1801,19 +1892,19 @@
                   <c:v>74.697045327942206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.947325775835399</c:v>
+                  <c:v>15.48919629065557</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.161885416976808</c:v>
+                  <c:v>3.2667125449356016</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>57.456433439932809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.301530167111544</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.788801402368193</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.813767439971841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,7 +1915,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$O$3:$O$4</c:f>
+              <c:f>Sheet1!$O$3:$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1836,7 +1927,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1862,7 +1953,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$O$5:$O$11</c:f>
+              <c:f>Sheet1!$O$5:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1870,19 +1961,19 @@
                   <c:v>33.099897917499376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.529878539031987</c:v>
+                  <c:v>20.349965399874613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.813619010765258</c:v>
+                  <c:v>0.11884034903414387</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>79.367146267379425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.51052282244671</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.782663804081871</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2619024870934248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,7 +1984,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$P$3:$P$4</c:f>
+              <c:f>Sheet1!$P$3:$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1905,7 +1996,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1931,7 +2022,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$P$5:$P$11</c:f>
+              <c:f>Sheet1!$P$5:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1939,19 +2030,19 @@
                   <c:v>91.818063334162417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.385464170872091</c:v>
+                  <c:v>20.18987877448345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.847000951594186</c:v>
+                  <c:v>7.8454076769342906</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>43.093750893671292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.357100678135701</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.172560613861723</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60.109268246105842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,7 +2053,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$Q$3:$Q$4</c:f>
+              <c:f>Sheet1!$Q$3:$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1974,7 +2065,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2000,7 +2091,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$Q$5:$Q$11</c:f>
+              <c:f>Sheet1!$Q$5:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2008,16 +2099,16 @@
                   <c:v>45.505737069959515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.63387090766679</c:v>
+                  <c:v>23.509711970603455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.458607083900841</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>45.713405535605268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.13908880124972</c:v>
+                  <c:v>23.256723962792002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.3860717107814153</c:v>
@@ -2031,7 +2122,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$R$3:$R$4</c:f>
+              <c:f>Sheet1!$R$3:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2043,7 +2134,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2069,7 +2160,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$R$5:$R$11</c:f>
+              <c:f>Sheet1!$R$5:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2077,16 +2168,16 @@
                   <c:v>44.888598509631429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.992793764578684</c:v>
+                  <c:v>17.854460407721373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7863839546120399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>12.120348771128874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.373140400461294</c:v>
+                  <c:v>17.13498435349954</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>34.894692850003274</c:v>
@@ -2100,7 +2191,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$S$3:$S$4</c:f>
+              <c:f>Sheet1!$S$3:$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2112,7 +2203,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2138,7 +2229,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$S$5:$S$11</c:f>
+              <c:f>Sheet1!$S$5:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2146,16 +2237,16 @@
                   <c:v>34.466131734330176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.888990472859732</c:v>
+                  <c:v>14.100864438310644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.492841037212504</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>36.337080047258929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.218284116476621</c:v>
+                  <c:v>13.57064171714315</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.71532252741415281</c:v>
@@ -2169,7 +2260,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$T$3:$T$4</c:f>
+              <c:f>Sheet1!$T$3:$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2181,7 +2272,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2207,7 +2298,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$T$5:$T$11</c:f>
+              <c:f>Sheet1!$T$5:$T$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2215,19 +2306,19 @@
                   <c:v>45.581036645446105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.468468837324675</c:v>
+                  <c:v>23.156827328438101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.955122575477764</c:v>
+                  <c:v>7.1906267120766305</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>28.606541854061575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.416223414630633</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.514694228336776</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57.795298958810683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,7 +2329,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$U$3:$U$4</c:f>
+              <c:f>Sheet1!$U$3:$U$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2250,7 +2341,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2276,7 +2367,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$U$5:$U$11</c:f>
+              <c:f>Sheet1!$U$5:$U$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2284,7 +2375,7 @@
                   <c:v>33.803548203777147</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.447756368495714</c:v>
+                  <c:v>17.528977456006199</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.096436586125648</c:v>
@@ -2293,7 +2384,7 @@
                   <c:v>59.427696978736755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.588470452287666</c:v>
+                  <c:v>19.328031089138808</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.914907819081643</c:v>
@@ -2307,7 +2398,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$V$3:$V$4</c:f>
+              <c:f>Sheet1!$V$3:$V$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2319,7 +2410,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2345,7 +2436,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$V$5:$V$11</c:f>
+              <c:f>Sheet1!$V$5:$V$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2353,7 +2444,7 @@
                   <c:v>46.970490074553382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.485668201492693</c:v>
+                  <c:v>25.218018764770822</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.6731656342567938</c:v>
@@ -2362,7 +2453,7 @@
                   <c:v>65.349124150215872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.878086713434847</c:v>
+                  <c:v>26.501271524004487</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>48.68987092034002</c:v>
@@ -2376,7 +2467,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$W$3:$W$4</c:f>
+              <c:f>Sheet1!$W$3:$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2388,7 +2479,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2414,7 +2505,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$W$5:$W$11</c:f>
+              <c:f>Sheet1!$W$5:$W$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2422,7 +2513,7 @@
                   <c:v>38.599398790677938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.423162788854732</c:v>
+                  <c:v>30.234932845439712</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>36.919945355860385</c:v>
@@ -2431,7 +2522,7 @@
                   <c:v>68.869569991357125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.117979866815205</c:v>
+                  <c:v>32.949501757953293</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12.711952437276308</c:v>
@@ -2445,7 +2536,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$X$3:$X$4</c:f>
+              <c:f>Sheet1!$X$3:$X$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2457,7 +2548,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2483,7 +2574,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$X$5:$X$11</c:f>
+              <c:f>Sheet1!$X$5:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2491,19 +2582,19 @@
                   <c:v>33.309839048670277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.964914156491719</c:v>
+                  <c:v>17.702875304320564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.115447078813197</c:v>
+                  <c:v>29.347908244687215</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>71.541020768631853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.219439604675017</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.83862107945491</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>98.872432071217702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,7 +2605,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$Y$3:$Y$4</c:f>
+              <c:f>Sheet1!$Y$3:$Y$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2526,7 +2617,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2552,7 +2643,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$Y$5:$Y$11</c:f>
+              <c:f>Sheet1!$Y$5:$Y$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2560,7 +2651,7 @@
                   <c:v>72.350677127679035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.383025637686927</c:v>
+                  <c:v>20.938647289454881</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.12618481873976073</c:v>
@@ -2569,7 +2660,7 @@
                   <c:v>71.807381454763444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.17895942319911</c:v>
+                  <c:v>23.504603252477395</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>38.419871991494659</c:v>
@@ -2583,7 +2674,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot_table!$Z$3:$Z$4</c:f>
+              <c:f>Sheet1!$Z$3:$Z$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2595,7 +2686,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot_table!$A$5:$A$11</c:f>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2621,7 +2712,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_table!$Z$5:$Z$11</c:f>
+              <c:f>Sheet1!$Z$5:$Z$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2629,7 +2720,7 @@
                   <c:v>61.495986483296342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.119143801956156</c:v>
+                  <c:v>11.457885112286492</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15.204709147364415</c:v>
@@ -2638,7 +2729,7 @@
                   <c:v>68.464690902896507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.073413376024526</c:v>
+                  <c:v>15.101371925947394</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.19328461309997547</c:v>
@@ -2656,11 +2747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="15472128"/>
-        <c:axId val="15473664"/>
+        <c:axId val="313323520"/>
+        <c:axId val="313325056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15472128"/>
+        <c:axId val="313323520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,7 +2760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="15473664"/>
+        <c:crossAx val="313325056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2677,7 +2768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15473664"/>
+        <c:axId val="313325056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,7 +2779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="15472128"/>
+        <c:crossAx val="313323520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2725,20 +2816,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>714374</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2757,13 +2848,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sung.Bill" refreshedDate="43284.613569560184" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="150">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sung.Bill" refreshedDate="43291.573514930555" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="150">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:D151" sheet="raw_data_by_prod"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="cpr" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="99.981070174310091"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="93.827485512601754"/>
     </cacheField>
     <cacheField name="period" numFmtId="0">
       <sharedItems count="25">
@@ -2816,7 +2907,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="150">
   <r>
-    <n v="24.442572731947109"/>
+    <n v="23.030536488499664"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -2826,27 +2917,27 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="23.84969082891698"/>
+    <n v="22.348144321330921"/>
     <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="83.296012045716125"/>
+    <n v="0"/>
     <x v="0"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="33.057507748295187"/>
+    <n v="14.30995432067772"/>
     <x v="0"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="62.683493068740304"/>
     <x v="0"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="22.218695279664168"/>
+    <n v="21.453143110038965"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -2856,7 +2947,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="17.892886356857296"/>
+    <n v="17.524185049039165"/>
     <x v="1"/>
     <x v="2"/>
   </r>
@@ -2876,7 +2967,7 @@
     <x v="5"/>
   </r>
   <r>
-    <n v="32.342992846102348"/>
+    <n v="32.205071116918546"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -2886,27 +2977,27 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="27.982739346471107"/>
+    <n v="28.338094587120043"/>
     <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="33.345575731853394"/>
+    <n v="0"/>
     <x v="2"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="69.039082872571328"/>
+    <n v="3.8163651935195331"/>
     <x v="2"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="93.827485512601754"/>
     <x v="2"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="20.300064664843998"/>
+    <n v="19.79356785866052"/>
     <x v="3"/>
     <x v="0"/>
   </r>
@@ -2916,7 +3007,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="18.507311084158594"/>
+    <n v="18.148837141352214"/>
     <x v="3"/>
     <x v="2"/>
   </r>
@@ -2936,7 +3027,7 @@
     <x v="5"/>
   </r>
   <r>
-    <n v="28.512803248734198"/>
+    <n v="28.622516783557074"/>
     <x v="4"/>
     <x v="0"/>
   </r>
@@ -2946,7 +3037,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="27.306746678054459"/>
+    <n v="27.569007301341141"/>
     <x v="4"/>
     <x v="2"/>
   </r>
@@ -2956,17 +3047,17 @@
     <x v="3"/>
   </r>
   <r>
-    <n v="43.944566992704878"/>
+    <n v="0"/>
     <x v="4"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="78.193330064058429"/>
     <x v="4"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="20.97513232271384"/>
+    <n v="19.789261420474237"/>
     <x v="5"/>
     <x v="0"/>
   </r>
@@ -2976,7 +3067,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="19.846569113030611"/>
+    <n v="18.662587223820381"/>
     <x v="5"/>
     <x v="2"/>
   </r>
@@ -2996,7 +3087,7 @@
     <x v="5"/>
   </r>
   <r>
-    <n v="15.039797878963324"/>
+    <n v="15.277213045533633"/>
     <x v="6"/>
     <x v="0"/>
   </r>
@@ -3006,12 +3097,12 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="12.251408846179901"/>
+    <n v="12.849412882348144"/>
     <x v="6"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="99.981070174310091"/>
+    <n v="0"/>
     <x v="6"/>
     <x v="3"/>
   </r>
@@ -3021,12 +3112,12 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="74.522106523949034"/>
     <x v="6"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="22.456561240974903"/>
+    <n v="21.986044575167263"/>
     <x v="7"/>
     <x v="0"/>
   </r>
@@ -3036,7 +3127,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="22.348848353662387"/>
+    <n v="21.844596477578715"/>
     <x v="7"/>
     <x v="2"/>
   </r>
@@ -3056,7 +3147,7 @@
     <x v="5"/>
   </r>
   <r>
-    <n v="19.701663012350103"/>
+    <n v="21.042289092877375"/>
     <x v="8"/>
     <x v="0"/>
   </r>
@@ -3066,27 +3157,27 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="13.543970639974223"/>
+    <n v="15.851617512357674"/>
     <x v="8"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="87.508127592424671"/>
+    <n v="0"/>
     <x v="8"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="61.454310685942339"/>
+    <n v="16.312974154448746"/>
     <x v="8"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="88.36333052063344"/>
     <x v="8"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="21.739174032418383"/>
+    <n v="20.944855948726715"/>
     <x v="9"/>
     <x v="0"/>
   </r>
@@ -3096,7 +3187,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="18.446779403993496"/>
+    <n v="17.928909001277681"/>
     <x v="9"/>
     <x v="2"/>
   </r>
@@ -3116,7 +3207,7 @@
     <x v="5"/>
   </r>
   <r>
-    <n v="21.967988076965426"/>
+    <n v="21.822293039889416"/>
     <x v="10"/>
     <x v="0"/>
   </r>
@@ -3126,7 +3217,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="19.131651531348037"/>
+    <n v="19.29408520333774"/>
     <x v="10"/>
     <x v="2"/>
   </r>
@@ -3136,17 +3227,17 @@
     <x v="3"/>
   </r>
   <r>
-    <n v="37.064303630893761"/>
+    <n v="0"/>
     <x v="10"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="62.985294665712267"/>
     <x v="10"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="19.265699548308714"/>
+    <n v="17.470594484341074"/>
     <x v="11"/>
     <x v="0"/>
   </r>
@@ -3156,27 +3247,27 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="16.210812205480206"/>
+    <n v="14.516687087441527"/>
     <x v="11"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="98.612986144910948"/>
+    <n v="0"/>
     <x v="11"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="23.614842178842753"/>
+    <n v="28.431728052179029"/>
     <x v="11"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="44.2493094171857"/>
     <x v="11"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="18.788801402368193"/>
+    <n v="17.301530167111544"/>
     <x v="12"/>
     <x v="0"/>
   </r>
@@ -3186,27 +3277,27 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="16.947325775835399"/>
+    <n v="15.48919629065557"/>
     <x v="12"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="29.813767439971841"/>
+    <n v="0"/>
     <x v="12"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="33.161885416976808"/>
+    <n v="3.2667125449356016"/>
     <x v="12"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="57.456433439932809"/>
     <x v="12"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="23.782663804081871"/>
+    <n v="22.51052282244671"/>
     <x v="13"/>
     <x v="0"/>
   </r>
@@ -3216,27 +3307,27 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="21.529878539031987"/>
+    <n v="20.349965399874613"/>
     <x v="13"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="1.2619024870934248"/>
+    <n v="0"/>
     <x v="13"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="52.813619010765258"/>
+    <n v="0.11884034903414387"/>
     <x v="13"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="79.367146267379425"/>
     <x v="13"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="20.172560613861723"/>
+    <n v="22.357100678135701"/>
     <x v="14"/>
     <x v="0"/>
   </r>
@@ -3246,27 +3337,27 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="17.385464170872091"/>
+    <n v="20.18987877448345"/>
     <x v="14"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="60.109268246105842"/>
+    <n v="0"/>
     <x v="14"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="22.847000951594186"/>
+    <n v="7.8454076769342906"/>
     <x v="14"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="43.093750893671292"/>
     <x v="14"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="25.13908880124972"/>
+    <n v="23.256723962792002"/>
     <x v="15"/>
     <x v="0"/>
   </r>
@@ -3276,7 +3367,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="25.63387090766679"/>
+    <n v="23.509711970603455"/>
     <x v="15"/>
     <x v="2"/>
   </r>
@@ -3286,17 +3377,17 @@
     <x v="3"/>
   </r>
   <r>
-    <n v="24.458607083900841"/>
+    <n v="0"/>
     <x v="15"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="45.713405535605268"/>
     <x v="15"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="15.373140400461294"/>
+    <n v="17.13498435349954"/>
     <x v="16"/>
     <x v="0"/>
   </r>
@@ -3306,7 +3397,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="15.992793764578684"/>
+    <n v="17.854460407721373"/>
     <x v="16"/>
     <x v="2"/>
   </r>
@@ -3316,17 +3407,17 @@
     <x v="3"/>
   </r>
   <r>
-    <n v="5.7863839546120399"/>
+    <n v="0"/>
     <x v="16"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="12.120348771128874"/>
     <x v="16"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="14.218284116476621"/>
+    <n v="13.57064171714315"/>
     <x v="17"/>
     <x v="0"/>
   </r>
@@ -3336,7 +3427,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="14.888990472859732"/>
+    <n v="14.100864438310644"/>
     <x v="17"/>
     <x v="2"/>
   </r>
@@ -3346,17 +3437,17 @@
     <x v="3"/>
   </r>
   <r>
-    <n v="19.492841037212504"/>
+    <n v="0"/>
     <x v="17"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="36.337080047258929"/>
     <x v="17"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="23.514694228336776"/>
+    <n v="22.416223414630633"/>
     <x v="18"/>
     <x v="0"/>
   </r>
@@ -3366,27 +3457,27 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="24.468468837324675"/>
+    <n v="23.156827328438101"/>
     <x v="18"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="57.795298958810683"/>
+    <n v="0"/>
     <x v="18"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="14.955122575477764"/>
+    <n v="7.1906267120766305"/>
     <x v="18"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="28.606541854061575"/>
     <x v="18"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="18.588470452287666"/>
+    <n v="19.328031089138808"/>
     <x v="19"/>
     <x v="0"/>
   </r>
@@ -3396,7 +3487,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="16.447756368495714"/>
+    <n v="17.528977456006199"/>
     <x v="19"/>
     <x v="2"/>
   </r>
@@ -3416,7 +3507,7 @@
     <x v="5"/>
   </r>
   <r>
-    <n v="26.878086713434847"/>
+    <n v="26.501271524004487"/>
     <x v="20"/>
     <x v="0"/>
   </r>
@@ -3426,7 +3517,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="25.485668201492693"/>
+    <n v="25.218018764770822"/>
     <x v="20"/>
     <x v="2"/>
   </r>
@@ -3446,7 +3537,7 @@
     <x v="5"/>
   </r>
   <r>
-    <n v="35.117979866815205"/>
+    <n v="32.949501757953293"/>
     <x v="21"/>
     <x v="0"/>
   </r>
@@ -3456,7 +3547,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="32.423162788854732"/>
+    <n v="30.234932845439712"/>
     <x v="21"/>
     <x v="2"/>
   </r>
@@ -3476,7 +3567,7 @@
     <x v="5"/>
   </r>
   <r>
-    <n v="21.83862107945491"/>
+    <n v="21.219439604675017"/>
     <x v="22"/>
     <x v="0"/>
   </r>
@@ -3486,27 +3577,27 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="17.964914156491719"/>
+    <n v="17.702875304320564"/>
     <x v="22"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="98.872432071217702"/>
+    <n v="0"/>
     <x v="22"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="48.115447078813197"/>
+    <n v="29.347908244687215"/>
     <x v="22"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="71.541020768631853"/>
     <x v="22"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="24.17895942319911"/>
+    <n v="23.504603252477395"/>
     <x v="23"/>
     <x v="0"/>
   </r>
@@ -3516,7 +3607,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="21.383025637686927"/>
+    <n v="20.938647289454881"/>
     <x v="23"/>
     <x v="2"/>
   </r>
@@ -3536,7 +3627,7 @@
     <x v="5"/>
   </r>
   <r>
-    <n v="16.073413376024526"/>
+    <n v="15.101371925947394"/>
     <x v="24"/>
     <x v="0"/>
   </r>
@@ -3546,7 +3637,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="12.119143801956156"/>
+    <n v="11.457885112286492"/>
     <x v="24"/>
     <x v="2"/>
   </r>
@@ -3569,7 +3660,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:AA11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -3725,19 +3816,21 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of cpr" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of cpr" fld="0" baseField="2" baseItem="5"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="26">
+  <formats count="2">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="0" selected="0"/>
+        <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="0">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
   </formats>
-  <chartFormats count="50">
+  <chartFormats count="25">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -4027,306 +4120,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="24"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="25" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="30" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="31" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="33" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="35" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="36" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="37" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="38" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="39" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="40" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="41" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="16"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="42" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="17"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="43" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="18"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="44" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="19"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="45" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="20"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="46" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="21"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="47" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="22"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="48" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="23"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="49" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4635,20 +4428,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AA11"/>
+  <dimension ref="A3:AA90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -4746,82 +4559,82 @@
       <c r="A5" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>4.9302377117090845</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>41.005487279574737</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>80.333992551022277</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>72.796362330600928</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>57.350156993243282</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>65.010259858862682</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>53.210897222918916</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>53.141735793829461</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>73.14746443014829</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>65.429489422729489</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>91.040377728725502</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="5">
         <v>75.946562427530466</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>74.697045327942206</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="5">
         <v>33.099897917499376</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="5">
         <v>91.818063334162417</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="5">
         <v>45.505737069959515</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="5">
         <v>44.888598509631429</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="5">
         <v>34.466131734330176</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>45.581036645446105</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="5">
         <v>33.803548203777147</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="5">
         <v>46.970490074553382</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="5">
         <v>38.599398790677938</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="5">
         <v>33.309839048670277</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="5">
         <v>72.350677127679035</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="5">
         <v>61.495986483296342</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="5">
         <v>1389.9294740185205</v>
       </c>
     </row>
@@ -4829,503 +4642,1542 @@
       <c r="A6" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="4">
-        <v>23.84969082891698</v>
-      </c>
-      <c r="C6" s="4">
-        <v>17.892886356857296</v>
-      </c>
-      <c r="D6" s="4">
-        <v>27.982739346471107</v>
-      </c>
-      <c r="E6" s="4">
-        <v>18.507311084158594</v>
-      </c>
-      <c r="F6" s="4">
-        <v>27.306746678054459</v>
-      </c>
-      <c r="G6" s="4">
-        <v>19.846569113030611</v>
-      </c>
-      <c r="H6" s="4">
-        <v>12.251408846179901</v>
-      </c>
-      <c r="I6" s="4">
-        <v>22.348848353662387</v>
-      </c>
-      <c r="J6" s="4">
-        <v>13.543970639974223</v>
-      </c>
-      <c r="K6" s="4">
-        <v>18.446779403993496</v>
-      </c>
-      <c r="L6" s="4">
-        <v>19.131651531348037</v>
-      </c>
-      <c r="M6" s="4">
-        <v>16.210812205480206</v>
-      </c>
-      <c r="N6" s="4">
-        <v>16.947325775835399</v>
-      </c>
-      <c r="O6" s="4">
-        <v>21.529878539031987</v>
-      </c>
-      <c r="P6" s="4">
-        <v>17.385464170872091</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>25.63387090766679</v>
-      </c>
-      <c r="R6" s="4">
-        <v>15.992793764578684</v>
-      </c>
-      <c r="S6" s="4">
-        <v>14.888990472859732</v>
-      </c>
-      <c r="T6" s="4">
-        <v>24.468468837324675</v>
-      </c>
-      <c r="U6" s="4">
-        <v>16.447756368495714</v>
-      </c>
-      <c r="V6" s="4">
-        <v>25.485668201492693</v>
-      </c>
-      <c r="W6" s="4">
-        <v>32.423162788854732</v>
-      </c>
-      <c r="X6" s="4">
-        <v>17.964914156491719</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>21.383025637686927</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>12.119143801956156</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>499.9898778112746</v>
+      <c r="B6" s="5">
+        <v>22.348144321330921</v>
+      </c>
+      <c r="C6" s="5">
+        <v>17.524185049039165</v>
+      </c>
+      <c r="D6" s="5">
+        <v>28.338094587120043</v>
+      </c>
+      <c r="E6" s="5">
+        <v>18.148837141352214</v>
+      </c>
+      <c r="F6" s="5">
+        <v>27.569007301341141</v>
+      </c>
+      <c r="G6" s="5">
+        <v>18.662587223820381</v>
+      </c>
+      <c r="H6" s="5">
+        <v>12.849412882348144</v>
+      </c>
+      <c r="I6" s="5">
+        <v>21.844596477578715</v>
+      </c>
+      <c r="J6" s="5">
+        <v>15.851617512357674</v>
+      </c>
+      <c r="K6" s="5">
+        <v>17.928909001277681</v>
+      </c>
+      <c r="L6" s="5">
+        <v>19.29408520333774</v>
+      </c>
+      <c r="M6" s="5">
+        <v>14.516687087441527</v>
+      </c>
+      <c r="N6" s="5">
+        <v>15.48919629065557</v>
+      </c>
+      <c r="O6" s="5">
+        <v>20.349965399874613</v>
+      </c>
+      <c r="P6" s="5">
+        <v>20.18987877448345</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>23.509711970603455</v>
+      </c>
+      <c r="R6" s="5">
+        <v>17.854460407721373</v>
+      </c>
+      <c r="S6" s="5">
+        <v>14.100864438310644</v>
+      </c>
+      <c r="T6" s="5">
+        <v>23.156827328438101</v>
+      </c>
+      <c r="U6" s="5">
+        <v>17.528977456006199</v>
+      </c>
+      <c r="V6" s="5">
+        <v>25.218018764770822</v>
+      </c>
+      <c r="W6" s="5">
+        <v>30.234932845439712</v>
+      </c>
+      <c r="X6" s="5">
+        <v>17.702875304320564</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>20.938647289454881</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>11.457885112286492</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>492.60840517071119</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="4">
-        <v>33.057507748295187</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="5">
+        <v>14.30995432067772</v>
+      </c>
+      <c r="C7" s="5">
         <v>20.452807172218158</v>
       </c>
-      <c r="D7" s="4">
-        <v>69.039082872571328</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="5">
+        <v>3.8163651935195331</v>
+      </c>
+      <c r="E7" s="5">
         <v>12.776029238625009</v>
       </c>
-      <c r="F7" s="4">
-        <v>43.944566992704878</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>3.3601561110406575</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>2.1647361784181141</v>
       </c>
-      <c r="J7" s="4">
-        <v>61.454310685942339</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="J7" s="5">
+        <v>16.312974154448746</v>
+      </c>
+      <c r="K7" s="5">
         <v>6.2562975281925892</v>
       </c>
-      <c r="L7" s="4">
-        <v>37.064303630893761</v>
-      </c>
-      <c r="M7" s="4">
-        <v>23.614842178842753</v>
-      </c>
-      <c r="N7" s="4">
-        <v>33.161885416976808</v>
-      </c>
-      <c r="O7" s="4">
-        <v>52.813619010765258</v>
-      </c>
-      <c r="P7" s="4">
-        <v>22.847000951594186</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>24.458607083900841</v>
-      </c>
-      <c r="R7" s="4">
-        <v>5.7863839546120399</v>
-      </c>
-      <c r="S7" s="4">
-        <v>19.492841037212504</v>
-      </c>
-      <c r="T7" s="4">
-        <v>14.955122575477764</v>
-      </c>
-      <c r="U7" s="4">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>28.431728052179029</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3.2667125449356016</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.11884034903414387</v>
+      </c>
+      <c r="P7" s="5">
+        <v>7.8454076769342906</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>7.1906267120766305</v>
+      </c>
+      <c r="U7" s="5">
         <v>12.096436586125648</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="5">
         <v>5.6731656342567938</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="5">
         <v>36.919945355860385</v>
       </c>
-      <c r="X7" s="4">
-        <v>48.115447078813197</v>
-      </c>
-      <c r="Y7" s="4">
+      <c r="X7" s="5">
+        <v>29.347908244687215</v>
+      </c>
+      <c r="Y7" s="5">
         <v>0.12618481873976073</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="5">
         <v>15.204709147364415</v>
       </c>
-      <c r="AA7" s="3">
-        <v>604.83598898944433</v>
+      <c r="AA7" s="5">
+        <v>225.67098501933444</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="5">
+        <v>62.683493068740304</v>
+      </c>
+      <c r="C8" s="5">
         <v>85.162452760268906</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="5">
+        <v>93.827485512601754</v>
+      </c>
+      <c r="E8" s="5">
         <v>48.821917598895425</v>
       </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="5">
+        <v>78.193330064058429</v>
+      </c>
+      <c r="G8" s="5">
         <v>55.445511345011454</v>
       </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="5">
+        <v>74.522106523949034</v>
+      </c>
+      <c r="I8" s="5">
         <v>46.00765760009029</v>
       </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="J8" s="5">
+        <v>88.36333052063344</v>
+      </c>
+      <c r="K8" s="5">
         <v>78.577349130930799</v>
       </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
+      <c r="L8" s="5">
+        <v>62.985294665712267</v>
+      </c>
+      <c r="M8" s="5">
+        <v>44.2493094171857</v>
+      </c>
+      <c r="N8" s="5">
+        <v>57.456433439932809</v>
+      </c>
+      <c r="O8" s="5">
+        <v>79.367146267379425</v>
+      </c>
+      <c r="P8" s="5">
+        <v>43.093750893671292</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>45.713405535605268</v>
+      </c>
+      <c r="R8" s="5">
+        <v>12.120348771128874</v>
+      </c>
+      <c r="S8" s="5">
+        <v>36.337080047258929</v>
+      </c>
+      <c r="T8" s="5">
+        <v>28.606541854061575</v>
+      </c>
+      <c r="U8" s="5">
         <v>59.427696978736755</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="5">
         <v>65.349124150215872</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="5">
         <v>68.869569991357125</v>
       </c>
-      <c r="X8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4">
+      <c r="X8" s="5">
+        <v>71.541020768631853</v>
+      </c>
+      <c r="Y8" s="5">
         <v>71.807381454763444</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="5">
         <v>68.464690902896507</v>
       </c>
-      <c r="AA8" s="3">
-        <v>647.93335191316669</v>
+      <c r="AA8" s="5">
+        <v>1526.9934292637176</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="4">
-        <v>24.442572731947109</v>
-      </c>
-      <c r="C9" s="4">
-        <v>22.218695279664168</v>
-      </c>
-      <c r="D9" s="4">
-        <v>32.342992846102348</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20.300064664843998</v>
-      </c>
-      <c r="F9" s="4">
-        <v>28.512803248734198</v>
-      </c>
-      <c r="G9" s="4">
-        <v>20.97513232271384</v>
-      </c>
-      <c r="H9" s="4">
-        <v>15.039797878963324</v>
-      </c>
-      <c r="I9" s="4">
-        <v>22.456561240974903</v>
-      </c>
-      <c r="J9" s="4">
-        <v>19.701663012350103</v>
-      </c>
-      <c r="K9" s="4">
-        <v>21.739174032418383</v>
-      </c>
-      <c r="L9" s="4">
-        <v>21.967988076965426</v>
-      </c>
-      <c r="M9" s="4">
-        <v>19.265699548308714</v>
-      </c>
-      <c r="N9" s="4">
-        <v>18.788801402368193</v>
-      </c>
-      <c r="O9" s="4">
-        <v>23.782663804081871</v>
-      </c>
-      <c r="P9" s="4">
-        <v>20.172560613861723</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>25.13908880124972</v>
-      </c>
-      <c r="R9" s="4">
-        <v>15.373140400461294</v>
-      </c>
-      <c r="S9" s="4">
-        <v>14.218284116476621</v>
-      </c>
-      <c r="T9" s="4">
-        <v>23.514694228336776</v>
-      </c>
-      <c r="U9" s="4">
-        <v>18.588470452287666</v>
-      </c>
-      <c r="V9" s="4">
-        <v>26.878086713434847</v>
-      </c>
-      <c r="W9" s="4">
-        <v>35.117979866815205</v>
-      </c>
-      <c r="X9" s="4">
-        <v>21.83862107945491</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>24.17895942319911</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>16.073413376024526</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>552.62790916203903</v>
+      <c r="B9" s="5">
+        <v>23.030536488499664</v>
+      </c>
+      <c r="C9" s="5">
+        <v>21.453143110038965</v>
+      </c>
+      <c r="D9" s="5">
+        <v>32.205071116918546</v>
+      </c>
+      <c r="E9" s="5">
+        <v>19.79356785866052</v>
+      </c>
+      <c r="F9" s="5">
+        <v>28.622516783557074</v>
+      </c>
+      <c r="G9" s="5">
+        <v>19.789261420474237</v>
+      </c>
+      <c r="H9" s="5">
+        <v>15.277213045533633</v>
+      </c>
+      <c r="I9" s="5">
+        <v>21.986044575167263</v>
+      </c>
+      <c r="J9" s="5">
+        <v>21.042289092877375</v>
+      </c>
+      <c r="K9" s="5">
+        <v>20.944855948726715</v>
+      </c>
+      <c r="L9" s="5">
+        <v>21.822293039889416</v>
+      </c>
+      <c r="M9" s="5">
+        <v>17.470594484341074</v>
+      </c>
+      <c r="N9" s="5">
+        <v>17.301530167111544</v>
+      </c>
+      <c r="O9" s="5">
+        <v>22.51052282244671</v>
+      </c>
+      <c r="P9" s="5">
+        <v>22.357100678135701</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>23.256723962792002</v>
+      </c>
+      <c r="R9" s="5">
+        <v>17.13498435349954</v>
+      </c>
+      <c r="S9" s="5">
+        <v>13.57064171714315</v>
+      </c>
+      <c r="T9" s="5">
+        <v>22.416223414630633</v>
+      </c>
+      <c r="U9" s="5">
+        <v>19.328031089138808</v>
+      </c>
+      <c r="V9" s="5">
+        <v>26.501271524004487</v>
+      </c>
+      <c r="W9" s="5">
+        <v>32.949501757953293</v>
+      </c>
+      <c r="X9" s="5">
+        <v>21.219439604675017</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>23.504603252477395</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>15.101371925947394</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>540.58933323464009</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="4">
-        <v>83.296012045716125</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
         <v>7.4802524868308184</v>
       </c>
-      <c r="D10" s="4">
-        <v>33.345575731853394</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
         <v>15.264783086445977</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>10.122983280702623</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>25.348253011134858</v>
       </c>
-      <c r="H10" s="4">
-        <v>99.981070174310091</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>11.072832392373533</v>
       </c>
-      <c r="J10" s="4">
-        <v>87.508127592424671</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
         <v>10.68923386285271</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="5">
         <v>10.314984285900364</v>
       </c>
-      <c r="M10" s="4">
-        <v>98.612986144910948</v>
-      </c>
-      <c r="N10" s="4">
-        <v>29.813767439971841</v>
-      </c>
-      <c r="O10" s="4">
-        <v>1.2619024870934248</v>
-      </c>
-      <c r="P10" s="4">
-        <v>60.109268246105842</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>6.3860717107814153</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="5">
         <v>34.894692850003274</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="5">
         <v>0.71532252741415281</v>
       </c>
-      <c r="T10" s="4">
-        <v>57.795298958810683</v>
-      </c>
-      <c r="U10" s="4">
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
         <v>10.914907819081643</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="5">
         <v>48.68987092034002</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="5">
         <v>12.711952437276308</v>
       </c>
-      <c r="X10" s="4">
-        <v>98.872432071217702</v>
-      </c>
-      <c r="Y10" s="4">
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
         <v>38.419871991494659</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="5">
         <v>0.19328461309997547</v>
       </c>
-      <c r="AA10" s="3">
-        <v>893.81573816814694</v>
+      <c r="AA10" s="5">
+        <v>243.21929727573229</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="3">
-        <v>169.57602106658447</v>
-      </c>
-      <c r="C11" s="3">
-        <v>194.21258133541406</v>
-      </c>
-      <c r="D11" s="3">
-        <v>243.04438334802046</v>
-      </c>
-      <c r="E11" s="3">
-        <v>188.46646800356993</v>
-      </c>
-      <c r="F11" s="3">
-        <v>167.23725719343943</v>
-      </c>
-      <c r="G11" s="3">
-        <v>189.9858817617941</v>
-      </c>
-      <c r="H11" s="3">
-        <v>180.48317412237225</v>
-      </c>
-      <c r="I11" s="3">
-        <v>157.19237155934869</v>
-      </c>
-      <c r="J11" s="3">
-        <v>255.35553636083964</v>
-      </c>
-      <c r="K11" s="3">
-        <v>201.13832338111749</v>
-      </c>
-      <c r="L11" s="3">
-        <v>179.5193052538331</v>
-      </c>
-      <c r="M11" s="3">
-        <v>233.65090250507308</v>
-      </c>
-      <c r="N11" s="3">
-        <v>173.40882536309442</v>
-      </c>
-      <c r="O11" s="3">
-        <v>132.48796175847193</v>
-      </c>
-      <c r="P11" s="3">
-        <v>212.33235731659627</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>127.12337557355826</v>
-      </c>
-      <c r="R11" s="3">
-        <v>116.93560947928671</v>
-      </c>
-      <c r="S11" s="3">
-        <v>83.781569888293191</v>
-      </c>
-      <c r="T11" s="3">
-        <v>166.31462124539601</v>
-      </c>
-      <c r="U11" s="3">
-        <v>151.27881640850455</v>
-      </c>
-      <c r="V11" s="3">
-        <v>219.04640569429358</v>
-      </c>
-      <c r="W11" s="3">
-        <v>224.64200923084169</v>
-      </c>
-      <c r="X11" s="3">
-        <v>220.10125343464779</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>228.26610045356293</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>173.55122832463789</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>4589.1323400625924</v>
+      <c r="B11" s="5">
+        <v>127.30236591095769</v>
+      </c>
+      <c r="C11" s="5">
+        <v>193.07832785797075</v>
+      </c>
+      <c r="D11" s="5">
+        <v>238.52100896118213</v>
+      </c>
+      <c r="E11" s="5">
+        <v>187.60149725458007</v>
+      </c>
+      <c r="F11" s="5">
+        <v>201.85799442290252</v>
+      </c>
+      <c r="G11" s="5">
+        <v>187.61602897034427</v>
+      </c>
+      <c r="H11" s="5">
+        <v>155.85962967474973</v>
+      </c>
+      <c r="I11" s="5">
+        <v>156.21760301745735</v>
+      </c>
+      <c r="J11" s="5">
+        <v>214.71767571046553</v>
+      </c>
+      <c r="K11" s="5">
+        <v>199.82613489470998</v>
+      </c>
+      <c r="L11" s="5">
+        <v>205.45703492356529</v>
+      </c>
+      <c r="M11" s="5">
+        <v>180.61488146867777</v>
+      </c>
+      <c r="N11" s="5">
+        <v>168.21091777057774</v>
+      </c>
+      <c r="O11" s="5">
+        <v>155.44637275623427</v>
+      </c>
+      <c r="P11" s="5">
+        <v>185.30420135738714</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>144.37165024974163</v>
+      </c>
+      <c r="R11" s="5">
+        <v>126.8930848919845</v>
+      </c>
+      <c r="S11" s="5">
+        <v>99.190040464457056</v>
+      </c>
+      <c r="T11" s="5">
+        <v>126.95125595465305</v>
+      </c>
+      <c r="U11" s="5">
+        <v>153.09959813286619</v>
+      </c>
+      <c r="V11" s="5">
+        <v>218.40194106814135</v>
+      </c>
+      <c r="W11" s="5">
+        <v>220.28530117856477</v>
+      </c>
+      <c r="X11" s="5">
+        <v>173.12108297098493</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>227.14736593460916</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>171.91792818489114</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>4419.0109239826561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" t="s">
+        <v>172</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>28.431728052179029</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3.2667125449356016</v>
+      </c>
+      <c r="E41">
+        <v>0.11884034903414387</v>
+      </c>
+      <c r="F41">
+        <v>7.8454076769342906</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7.1906267120766305</v>
+      </c>
+      <c r="K41">
+        <v>12.096436586125648</v>
+      </c>
+      <c r="L41" s="3">
+        <v>5.6731656342567938</v>
+      </c>
+      <c r="M41" s="3">
+        <v>36.919945355860385</v>
+      </c>
+      <c r="N41" s="3">
+        <v>29.347908244687215</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.12618481873976073</v>
+      </c>
+      <c r="P41">
+        <v>15.204709147364415</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="F47">
+        <v>289335</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="8">
+        <v>85500000</v>
+      </c>
+      <c r="F48">
+        <v>72206367.260000005</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="F49">
+        <v>9646557.9900000002</v>
+      </c>
+      <c r="G49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="F50">
+        <v>429696.19</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H51" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="8">
+        <v>6000000</v>
+      </c>
+      <c r="F52">
+        <v>182426</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" t="s">
+        <v>194</v>
+      </c>
+      <c r="H54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="8">
+        <v>5344843.49</v>
+      </c>
+      <c r="F55">
+        <v>5344843.49</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="8">
+        <v>116151.3</v>
+      </c>
+      <c r="F56">
+        <v>116151.3</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="8">
+        <v>6875000</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" t="s">
+        <v>193</v>
+      </c>
+      <c r="G61" t="s">
+        <v>194</v>
+      </c>
+      <c r="H61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" s="8">
+        <v>16000000</v>
+      </c>
+      <c r="F62">
+        <v>110655</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="8">
+        <v>7000000</v>
+      </c>
+      <c r="F63">
+        <v>3531970.59</v>
+      </c>
+      <c r="G63" t="s">
+        <v>209</v>
+      </c>
+      <c r="H63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" t="s">
+        <v>193</v>
+      </c>
+      <c r="G65" t="s">
+        <v>194</v>
+      </c>
+      <c r="H65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="8">
+        <v>30000000</v>
+      </c>
+      <c r="F66">
+        <v>21460053.739999998</v>
+      </c>
+      <c r="G66" t="s">
+        <v>209</v>
+      </c>
+      <c r="H66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" s="8">
+        <v>14000000</v>
+      </c>
+      <c r="F67">
+        <v>11113641.279999999</v>
+      </c>
+      <c r="G67" t="s">
+        <v>209</v>
+      </c>
+      <c r="H67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="F68">
+        <v>6107654.3899999997</v>
+      </c>
+      <c r="G68" t="s">
+        <v>209</v>
+      </c>
+      <c r="H68" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" s="8">
+        <v>16000000</v>
+      </c>
+      <c r="F69">
+        <v>7110521.1799999997</v>
+      </c>
+      <c r="G69" t="s">
+        <v>209</v>
+      </c>
+      <c r="H69" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="8">
+        <v>17000000</v>
+      </c>
+      <c r="F70">
+        <v>4928108.43</v>
+      </c>
+      <c r="G70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="F71">
+        <v>-104626.39</v>
+      </c>
+      <c r="G71" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" t="s">
+        <v>198</v>
+      </c>
+      <c r="E72" s="8">
+        <v>19000000</v>
+      </c>
+      <c r="F72">
+        <v>1826696.51</v>
+      </c>
+      <c r="G72" t="s">
+        <v>209</v>
+      </c>
+      <c r="H72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="8">
+        <v>16000000</v>
+      </c>
+      <c r="F73">
+        <v>10457026.289999999</v>
+      </c>
+      <c r="G73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" t="s">
+        <v>198</v>
+      </c>
+      <c r="E74" s="8">
+        <v>27500000</v>
+      </c>
+      <c r="F74">
+        <v>21814368.890000001</v>
+      </c>
+      <c r="G74" t="s">
+        <v>209</v>
+      </c>
+      <c r="H74" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" t="s">
+        <v>198</v>
+      </c>
+      <c r="E75" s="8">
+        <v>15000000</v>
+      </c>
+      <c r="F75">
+        <v>10033834.310000001</v>
+      </c>
+      <c r="G75" t="s">
+        <v>209</v>
+      </c>
+      <c r="H75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F77" t="s">
+        <v>193</v>
+      </c>
+      <c r="G77" t="s">
+        <v>194</v>
+      </c>
+      <c r="H77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" s="8">
+        <v>19000000</v>
+      </c>
+      <c r="F78">
+        <v>12613247.800000001</v>
+      </c>
+      <c r="G78" t="s">
+        <v>209</v>
+      </c>
+      <c r="H78" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="8">
+        <v>28000000</v>
+      </c>
+      <c r="F79">
+        <v>27684002.43</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" s="8">
+        <v>15000000</v>
+      </c>
+      <c r="F80">
+        <v>7925026.8300000001</v>
+      </c>
+      <c r="G80" t="s">
+        <v>209</v>
+      </c>
+      <c r="H80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E81" s="8">
+        <v>3500000</v>
+      </c>
+      <c r="F81">
+        <v>1000656.83</v>
+      </c>
+      <c r="G81" t="s">
+        <v>209</v>
+      </c>
+      <c r="H81" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" t="s">
+        <v>198</v>
+      </c>
+      <c r="E82" s="8">
+        <v>13000000</v>
+      </c>
+      <c r="F82">
+        <v>3939490.78</v>
+      </c>
+      <c r="G82" t="s">
+        <v>209</v>
+      </c>
+      <c r="H82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="8">
+        <v>15000000</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>209</v>
+      </c>
+      <c r="H83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="8">
+        <v>8000000</v>
+      </c>
+      <c r="F84">
+        <v>4994599.18</v>
+      </c>
+      <c r="G84" t="s">
+        <v>209</v>
+      </c>
+      <c r="H84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="F85">
+        <v>8135026.9800000004</v>
+      </c>
+      <c r="G85" t="s">
+        <v>209</v>
+      </c>
+      <c r="H85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" s="8">
+        <v>4000000</v>
+      </c>
+      <c r="F86">
+        <v>2231392.66</v>
+      </c>
+      <c r="G86" t="s">
+        <v>209</v>
+      </c>
+      <c r="H86" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" s="8">
+        <v>19556475.09</v>
+      </c>
+      <c r="F87">
+        <v>16736959.789999999</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" t="s">
+        <v>191</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" t="s">
+        <v>193</v>
+      </c>
+      <c r="G89" t="s">
+        <v>194</v>
+      </c>
+      <c r="H89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="8">
+        <v>505968.86</v>
+      </c>
+      <c r="F90">
+        <v>505968.86</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5333,7 +6185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D151"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5353,7 +6207,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>24.442572731947109</v>
+        <v>23.030536488499664</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
@@ -5381,7 +6235,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>23.84969082891698</v>
+        <v>22.348144321330921</v>
       </c>
       <c r="C4" t="s">
         <v>153</v>
@@ -5395,7 +6249,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>83.296012045716125</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>153</v>
@@ -5409,7 +6263,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>33.057507748295187</v>
+        <v>14.30995432067772</v>
       </c>
       <c r="C6" t="s">
         <v>153</v>
@@ -5423,7 +6277,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>62.683493068740304</v>
       </c>
       <c r="C7" t="s">
         <v>153</v>
@@ -5437,7 +6291,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>22.218695279664168</v>
+        <v>21.453143110038965</v>
       </c>
       <c r="C8" t="s">
         <v>154</v>
@@ -5465,7 +6319,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>17.892886356857296</v>
+        <v>17.524185049039165</v>
       </c>
       <c r="C10" t="s">
         <v>154</v>
@@ -5521,7 +6375,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>32.342992846102348</v>
+        <v>32.205071116918546</v>
       </c>
       <c r="C14" t="s">
         <v>155</v>
@@ -5549,7 +6403,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>27.982739346471107</v>
+        <v>28.338094587120043</v>
       </c>
       <c r="C16" t="s">
         <v>155</v>
@@ -5563,7 +6417,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>33.345575731853394</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>155</v>
@@ -5577,7 +6431,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>69.039082872571328</v>
+        <v>3.8163651935195331</v>
       </c>
       <c r="C18" t="s">
         <v>155</v>
@@ -5591,7 +6445,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>93.827485512601754</v>
       </c>
       <c r="C19" t="s">
         <v>155</v>
@@ -5605,7 +6459,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>20.300064664843998</v>
+        <v>19.79356785866052</v>
       </c>
       <c r="C20" t="s">
         <v>156</v>
@@ -5633,7 +6487,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>18.507311084158594</v>
+        <v>18.148837141352214</v>
       </c>
       <c r="C22" t="s">
         <v>156</v>
@@ -5689,7 +6543,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>28.512803248734198</v>
+        <v>28.622516783557074</v>
       </c>
       <c r="C26" t="s">
         <v>157</v>
@@ -5717,7 +6571,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>27.306746678054459</v>
+        <v>27.569007301341141</v>
       </c>
       <c r="C28" t="s">
         <v>157</v>
@@ -5745,7 +6599,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>43.944566992704878</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
         <v>157</v>
@@ -5759,7 +6613,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>78.193330064058429</v>
       </c>
       <c r="C31" t="s">
         <v>157</v>
@@ -5773,7 +6627,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>20.97513232271384</v>
+        <v>19.789261420474237</v>
       </c>
       <c r="C32" t="s">
         <v>158</v>
@@ -5801,7 +6655,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>19.846569113030611</v>
+        <v>18.662587223820381</v>
       </c>
       <c r="C34" t="s">
         <v>158</v>
@@ -5857,7 +6711,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>15.039797878963324</v>
+        <v>15.277213045533633</v>
       </c>
       <c r="C38" t="s">
         <v>159</v>
@@ -5885,7 +6739,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>12.251408846179901</v>
+        <v>12.849412882348144</v>
       </c>
       <c r="C40" t="s">
         <v>159</v>
@@ -5899,7 +6753,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>99.981070174310091</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
         <v>159</v>
@@ -5927,7 +6781,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>74.522106523949034</v>
       </c>
       <c r="C43" t="s">
         <v>159</v>
@@ -5941,7 +6795,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>22.456561240974903</v>
+        <v>21.986044575167263</v>
       </c>
       <c r="C44" t="s">
         <v>160</v>
@@ -5969,7 +6823,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>22.348848353662387</v>
+        <v>21.844596477578715</v>
       </c>
       <c r="C46" t="s">
         <v>160</v>
@@ -6025,7 +6879,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>19.701663012350103</v>
+        <v>21.042289092877375</v>
       </c>
       <c r="C50" t="s">
         <v>161</v>
@@ -6053,7 +6907,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>13.543970639974223</v>
+        <v>15.851617512357674</v>
       </c>
       <c r="C52" t="s">
         <v>161</v>
@@ -6067,7 +6921,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>87.508127592424671</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
         <v>161</v>
@@ -6081,7 +6935,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>61.454310685942339</v>
+        <v>16.312974154448746</v>
       </c>
       <c r="C54" t="s">
         <v>161</v>
@@ -6095,7 +6949,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>88.36333052063344</v>
       </c>
       <c r="C55" t="s">
         <v>161</v>
@@ -6109,7 +6963,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>21.739174032418383</v>
+        <v>20.944855948726715</v>
       </c>
       <c r="C56" t="s">
         <v>162</v>
@@ -6137,7 +6991,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>18.446779403993496</v>
+        <v>17.928909001277681</v>
       </c>
       <c r="C58" t="s">
         <v>162</v>
@@ -6193,7 +7047,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>21.967988076965426</v>
+        <v>21.822293039889416</v>
       </c>
       <c r="C62" t="s">
         <v>163</v>
@@ -6221,7 +7075,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>19.131651531348037</v>
+        <v>19.29408520333774</v>
       </c>
       <c r="C64" t="s">
         <v>163</v>
@@ -6249,7 +7103,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>37.064303630893761</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
         <v>163</v>
@@ -6263,7 +7117,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>62.985294665712267</v>
       </c>
       <c r="C67" t="s">
         <v>163</v>
@@ -6277,7 +7131,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>19.265699548308714</v>
+        <v>17.470594484341074</v>
       </c>
       <c r="C68" t="s">
         <v>164</v>
@@ -6305,7 +7159,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>16.210812205480206</v>
+        <v>14.516687087441527</v>
       </c>
       <c r="C70" t="s">
         <v>164</v>
@@ -6319,7 +7173,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>98.612986144910948</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
         <v>164</v>
@@ -6333,7 +7187,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>23.614842178842753</v>
+        <v>28.431728052179029</v>
       </c>
       <c r="C72" t="s">
         <v>164</v>
@@ -6347,7 +7201,7 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>44.2493094171857</v>
       </c>
       <c r="C73" t="s">
         <v>164</v>
@@ -6361,7 +7215,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>18.788801402368193</v>
+        <v>17.301530167111544</v>
       </c>
       <c r="C74" t="s">
         <v>165</v>
@@ -6389,7 +7243,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>16.947325775835399</v>
+        <v>15.48919629065557</v>
       </c>
       <c r="C76" t="s">
         <v>165</v>
@@ -6403,7 +7257,7 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>29.813767439971841</v>
+        <v>0</v>
       </c>
       <c r="C77" t="s">
         <v>165</v>
@@ -6417,7 +7271,7 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>33.161885416976808</v>
+        <v>3.2667125449356016</v>
       </c>
       <c r="C78" t="s">
         <v>165</v>
@@ -6431,7 +7285,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>57.456433439932809</v>
       </c>
       <c r="C79" t="s">
         <v>165</v>
@@ -6445,7 +7299,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>23.782663804081871</v>
+        <v>22.51052282244671</v>
       </c>
       <c r="C80" t="s">
         <v>166</v>
@@ -6473,7 +7327,7 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>21.529878539031987</v>
+        <v>20.349965399874613</v>
       </c>
       <c r="C82" t="s">
         <v>166</v>
@@ -6487,7 +7341,7 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>1.2619024870934248</v>
+        <v>0</v>
       </c>
       <c r="C83" t="s">
         <v>166</v>
@@ -6501,7 +7355,7 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>52.813619010765258</v>
+        <v>0.11884034903414387</v>
       </c>
       <c r="C84" t="s">
         <v>166</v>
@@ -6515,7 +7369,7 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>79.367146267379425</v>
       </c>
       <c r="C85" t="s">
         <v>166</v>
@@ -6529,7 +7383,7 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>20.172560613861723</v>
+        <v>22.357100678135701</v>
       </c>
       <c r="C86" t="s">
         <v>167</v>
@@ -6557,7 +7411,7 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>17.385464170872091</v>
+        <v>20.18987877448345</v>
       </c>
       <c r="C88" t="s">
         <v>167</v>
@@ -6571,7 +7425,7 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>60.109268246105842</v>
+        <v>0</v>
       </c>
       <c r="C89" t="s">
         <v>167</v>
@@ -6585,7 +7439,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>22.847000951594186</v>
+        <v>7.8454076769342906</v>
       </c>
       <c r="C90" t="s">
         <v>167</v>
@@ -6599,7 +7453,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>43.093750893671292</v>
       </c>
       <c r="C91" t="s">
         <v>167</v>
@@ -6613,7 +7467,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>25.13908880124972</v>
+        <v>23.256723962792002</v>
       </c>
       <c r="C92" t="s">
         <v>168</v>
@@ -6641,7 +7495,7 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>25.63387090766679</v>
+        <v>23.509711970603455</v>
       </c>
       <c r="C94" t="s">
         <v>168</v>
@@ -6669,7 +7523,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>24.458607083900841</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s">
         <v>168</v>
@@ -6683,7 +7537,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>45.713405535605268</v>
       </c>
       <c r="C97" t="s">
         <v>168</v>
@@ -6697,7 +7551,7 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>15.373140400461294</v>
+        <v>17.13498435349954</v>
       </c>
       <c r="C98" t="s">
         <v>169</v>
@@ -6725,7 +7579,7 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>15.992793764578684</v>
+        <v>17.854460407721373</v>
       </c>
       <c r="C100" t="s">
         <v>169</v>
@@ -6753,7 +7607,7 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>5.7863839546120399</v>
+        <v>0</v>
       </c>
       <c r="C102" t="s">
         <v>169</v>
@@ -6767,7 +7621,7 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>12.120348771128874</v>
       </c>
       <c r="C103" t="s">
         <v>169</v>
@@ -6781,7 +7635,7 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>14.218284116476621</v>
+        <v>13.57064171714315</v>
       </c>
       <c r="C104" t="s">
         <v>170</v>
@@ -6809,7 +7663,7 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>14.888990472859732</v>
+        <v>14.100864438310644</v>
       </c>
       <c r="C106" t="s">
         <v>170</v>
@@ -6837,7 +7691,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>19.492841037212504</v>
+        <v>0</v>
       </c>
       <c r="C108" t="s">
         <v>170</v>
@@ -6851,7 +7705,7 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>36.337080047258929</v>
       </c>
       <c r="C109" t="s">
         <v>170</v>
@@ -6865,7 +7719,7 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>23.514694228336776</v>
+        <v>22.416223414630633</v>
       </c>
       <c r="C110" t="s">
         <v>171</v>
@@ -6893,7 +7747,7 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>24.468468837324675</v>
+        <v>23.156827328438101</v>
       </c>
       <c r="C112" t="s">
         <v>171</v>
@@ -6907,7 +7761,7 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>57.795298958810683</v>
+        <v>0</v>
       </c>
       <c r="C113" t="s">
         <v>171</v>
@@ -6921,7 +7775,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>14.955122575477764</v>
+        <v>7.1906267120766305</v>
       </c>
       <c r="C114" t="s">
         <v>171</v>
@@ -6935,7 +7789,7 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>28.606541854061575</v>
       </c>
       <c r="C115" t="s">
         <v>171</v>
@@ -6949,7 +7803,7 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>18.588470452287666</v>
+        <v>19.328031089138808</v>
       </c>
       <c r="C116" t="s">
         <v>172</v>
@@ -6977,7 +7831,7 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>16.447756368495714</v>
+        <v>17.528977456006199</v>
       </c>
       <c r="C118" t="s">
         <v>172</v>
@@ -7033,7 +7887,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>26.878086713434847</v>
+        <v>26.501271524004487</v>
       </c>
       <c r="C122" t="s">
         <v>173</v>
@@ -7061,7 +7915,7 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>25.485668201492693</v>
+        <v>25.218018764770822</v>
       </c>
       <c r="C124" t="s">
         <v>173</v>
@@ -7117,7 +7971,7 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>35.117979866815205</v>
+        <v>32.949501757953293</v>
       </c>
       <c r="C128" t="s">
         <v>174</v>
@@ -7145,7 +7999,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>32.423162788854732</v>
+        <v>30.234932845439712</v>
       </c>
       <c r="C130" t="s">
         <v>174</v>
@@ -7201,7 +8055,7 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>21.83862107945491</v>
+        <v>21.219439604675017</v>
       </c>
       <c r="C134" t="s">
         <v>175</v>
@@ -7229,7 +8083,7 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>17.964914156491719</v>
+        <v>17.702875304320564</v>
       </c>
       <c r="C136" t="s">
         <v>175</v>
@@ -7243,7 +8097,7 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>98.872432071217702</v>
+        <v>0</v>
       </c>
       <c r="C137" t="s">
         <v>175</v>
@@ -7257,7 +8111,7 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>48.115447078813197</v>
+        <v>29.347908244687215</v>
       </c>
       <c r="C138" t="s">
         <v>175</v>
@@ -7271,7 +8125,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>71.541020768631853</v>
       </c>
       <c r="C139" t="s">
         <v>175</v>
@@ -7285,7 +8139,7 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>24.17895942319911</v>
+        <v>23.504603252477395</v>
       </c>
       <c r="C140" t="s">
         <v>176</v>
@@ -7313,7 +8167,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>21.383025637686927</v>
+        <v>20.938647289454881</v>
       </c>
       <c r="C142" t="s">
         <v>176</v>
@@ -7369,7 +8223,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>16.073413376024526</v>
+        <v>15.101371925947394</v>
       </c>
       <c r="C146" t="s">
         <v>177</v>
@@ -7397,7 +8251,7 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>12.119143801956156</v>
+        <v>11.457885112286492</v>
       </c>
       <c r="C148" t="s">
         <v>177</v>

--- a/segmentation/closure_by_prod_type.xlsx
+++ b/segmentation/closure_by_prod_type.xlsx
@@ -7,21 +7,22 @@
     <workbookView xWindow="630" yWindow="510" windowWidth="15015" windowHeight="24705"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="pivot_table" sheetId="2" r:id="rId1"/>
     <sheet name="raw_data_by_prod" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'97d0a055-cc20-4e44-9208-a7d1db4e5644'"</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="275">
   <si>
     <t>cpr</t>
   </si>
@@ -680,24 +681,6 @@
     <t>50314663|42Seg 1</t>
   </si>
   <si>
-    <t>&lt;- No loans closed ou tof 247 loans (Closure rate: 0%)</t>
-  </si>
-  <si>
-    <t>&lt;- 6 loans closed out of 254 loans (Closure rate: 28%)</t>
-  </si>
-  <si>
-    <t>&lt;- 3 loans closed out of 251 loans (Closure rate: 3%)</t>
-  </si>
-  <si>
-    <t>&lt;- 2 loans closed out of 251 loans (Closure rate 5%)</t>
-  </si>
-  <si>
-    <t>&lt;- 10 loans closed out of 250 loans (Closure rate: 36%)</t>
-  </si>
-  <si>
-    <t>&lt;- 10 loans closed out of 244 loans (Closure rate: 29%)</t>
-  </si>
-  <si>
     <t>30849905|18Seg 1</t>
   </si>
   <si>
@@ -731,7 +714,139 @@
     <t>21437620|18Seg 1</t>
   </si>
   <si>
-    <t>&lt;- 1 loan closed out of 238 loans (Closure rate: 0.1%)</t>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>face_amt</t>
+  </si>
+  <si>
+    <t>curr_bal</t>
+  </si>
+  <si>
+    <t>&lt;- 6 accounts closed out of 254 accounts (Closure rate: 28%)</t>
+  </si>
+  <si>
+    <t>&lt;- 3 accounts closed out of 251 accounts (Closure rate: 3%)</t>
+  </si>
+  <si>
+    <t>&lt;- 2 accounts closed out of 251 accounts (Closure rate 5%)</t>
+  </si>
+  <si>
+    <t>&lt;- 10 accounts closed out of 250 accounts (Closure rate: 36%)</t>
+  </si>
+  <si>
+    <t>&lt;- 10 accounts closed out of 244 accounts (Closure rate: 29%)</t>
+  </si>
+  <si>
+    <t>&lt;- 1 loan closed out of 238 accounts (Closure rate: 0.1%)</t>
+  </si>
+  <si>
+    <t>&lt;- No accounts closed out of 247 accounts (Closure rate: 0%)</t>
+  </si>
+  <si>
+    <t>20134152|2717Seg 2Prod5 International</t>
+  </si>
+  <si>
+    <t>Prod5 International</t>
+  </si>
+  <si>
+    <t>40748260|18Seg 4Prod5 International</t>
+  </si>
+  <si>
+    <t>40762345|18Seg 4Prod5 International</t>
+  </si>
+  <si>
+    <t>&lt;- 3 accounts closed out of 169 accounts (Closure rate: 0.72%)</t>
+  </si>
+  <si>
+    <t>21386728|182Seg 2Prod5 International</t>
+  </si>
+  <si>
+    <t>21454690|59Seg 2Prod5 International</t>
+  </si>
+  <si>
+    <t>&lt;- 2 accounts closed out of 171 accounts (Closure rate: 25.96%)</t>
+  </si>
+  <si>
+    <t>&lt;- 1 account closed out of 169 accounts (Closure rate: 0.19%)</t>
+  </si>
+  <si>
+    <t>40780842|18Seg 4Prod5 International</t>
   </si>
 </sst>
 </file>
@@ -801,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -814,6 +929,9 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -850,7 +968,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[closure_by_prod_type.xlsx]Sheet1!PivotTable1</c:name>
+    <c:name>[closure_by_prod_type.xlsx]pivot_table!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1018,7 +1136,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:f>pivot_table!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1030,53 +1148,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$11</c:f>
+              <c:f>pivot_table!$B$5:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.9302377117090845</c:v>
+                  <c:v>19.502692612406069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.348144321330921</c:v>
+                  <c:v>5.1483153751608723</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20.540992206046273</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>14.30995432067772</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.683493068740304</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.030536488499664</c:v>
+                  <c:v>1.7731217707165792</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.717505570530662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,7 +1211,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$4</c:f>
+              <c:f>pivot_table!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1099,53 +1223,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$11</c:f>
+              <c:f>pivot_table!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>41.005487279574737</c:v>
+                  <c:v>16.925321735023868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.524185049039165</c:v>
+                  <c:v>19.909482849338467</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>17.167412783791857</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>20.452807172218158</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>85.162452760268906</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.453143110038965</c:v>
+                  <c:v>0.37293257978195937</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.4802524868308184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.664922129122296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,7 +1286,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$D$4</c:f>
+              <c:f>pivot_table!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1168,53 +1298,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$11</c:f>
+              <c:f>pivot_table!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>80.333992551022277</c:v>
+                  <c:v>24.118772831037493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.338094587120043</c:v>
+                  <c:v>43.059715942611774</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>23.256459476379753</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.8163651935195331</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>93.827485512601754</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.205071116918546</c:v>
+                  <c:v>68.55565397139442</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3751461682736057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,7 +1361,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3:$E$4</c:f>
+              <c:f>pivot_table!$E$3:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1237,53 +1373,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$11</c:f>
+              <c:f>pivot_table!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>72.796362330600928</c:v>
+                  <c:v>16.701788458528966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.148837141352214</c:v>
+                  <c:v>44.038764840081392</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16.667883302573749</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>12.776029238625009</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.821917598895425</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.79356785866052</c:v>
+                  <c:v>13.4339046824701</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>15.264783086445977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.002733001561984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,7 +1436,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$3:$F$4</c:f>
+              <c:f>pivot_table!$F$3:$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1306,53 +1448,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$11</c:f>
+              <c:f>pivot_table!$F$5:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>57.350156993243282</c:v>
+                  <c:v>23.87634310778639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.569007301341141</c:v>
+                  <c:v>10.261672271669365</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>25.970119331407993</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>78.193330064058429</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.622516783557074</c:v>
+                  <c:v>4.5995057689752201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.122983280702623</c:v>
+                  <c:v>17.535232040128012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.639184170471921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1363,7 +1511,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$3:$G$4</c:f>
+              <c:f>pivot_table!$G$3:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1375,53 +1523,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$11</c:f>
+              <c:f>pivot_table!$G$5:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>65.010259858862682</c:v>
+                  <c:v>15.961513790875447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.662587223820381</c:v>
+                  <c:v>24.30210251193461</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16.56462114808398</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.3601561110406575</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>55.445511345011454</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.789261420474237</c:v>
+                  <c:v>17.540239803145262</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25.348253011134858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.574113048858671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1432,7 +1586,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$3:$H$4</c:f>
+              <c:f>pivot_table!$H$3:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1444,53 +1598,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$11</c:f>
+              <c:f>pivot_table!$H$5:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>53.210897222918916</c:v>
+                  <c:v>11.929861750488225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.849412882348144</c:v>
+                  <c:v>4.0510019122429686</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11.786930934599106</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>74.522106523949034</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.277213045533633</c:v>
+                  <c:v>41.824847965624869</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.163298277577432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,7 +1661,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$3:$I$4</c:f>
+              <c:f>pivot_table!$I$3:$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1513,53 +1673,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$11</c:f>
+              <c:f>pivot_table!$I$5:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>53.141735793829461</c:v>
+                  <c:v>19.300197741464309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.844596477578715</c:v>
+                  <c:v>3.4326270631910183</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>21.00691223558545</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2.1647361784181141</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.00765760009029</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.986044575167263</c:v>
+                  <c:v>4.7260572214232299</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.072832392373533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.855233603148402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,7 +1736,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$3:$J$4</c:f>
+              <c:f>pivot_table!$J$3:$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1582,53 +1748,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$5:$J$11</c:f>
+              <c:f>pivot_table!$J$5:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>73.14746443014829</c:v>
+                  <c:v>25.020916026514318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.851617512357674</c:v>
+                  <c:v>48.453499480799891</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>24.333042621552682</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>16.312974154448746</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>88.36333052063344</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.042289092877375</c:v>
+                  <c:v>52.349210776334289</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.901274396734751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,7 +1811,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$3:$K$4</c:f>
+              <c:f>pivot_table!$K$3:$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1651,53 +1823,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$5:$K$11</c:f>
+              <c:f>pivot_table!$K$5:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>65.429489422729489</c:v>
+                  <c:v>24.682207197903772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.928909001277681</c:v>
+                  <c:v>36.011694456545307</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>26.375232450391074</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6.2562975281925892</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>78.577349130930799</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.944855948726715</c:v>
+                  <c:v>1.9247375759180674</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.68923386285271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.948429034516959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,7 +1886,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$3:$L$4</c:f>
+              <c:f>pivot_table!$L$3:$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1720,53 +1898,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$5:$L$11</c:f>
+              <c:f>pivot_table!$L$5:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>91.040377728725502</c:v>
+                  <c:v>17.692325314265368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.29408520333774</c:v>
+                  <c:v>66.465523508337753</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>17.412621581097156</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.985294665712267</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.822293039889416</c:v>
+                  <c:v>34.133644301569618</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.314984285900364</c:v>
+                  <c:v>12.265414044725221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.164331390793425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,7 +1961,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$3:$M$4</c:f>
+              <c:f>pivot_table!$M$3:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1789,53 +1973,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$5:$M$11</c:f>
+              <c:f>pivot_table!$M$5:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>75.946562427530466</c:v>
+                  <c:v>14.323396614397311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.516687087441527</c:v>
+                  <c:v>3.155240282297489</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>13.774565959186935</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>28.431728052179029</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>44.2493094171857</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.470594484341074</c:v>
+                  <c:v>3.2735962022161558</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.639339507457386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,7 +2036,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$3:$N$4</c:f>
+              <c:f>pivot_table!$N$3:$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1858,53 +2048,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$5:$N$11</c:f>
+              <c:f>pivot_table!$N$5:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>74.697045327942206</c:v>
+                  <c:v>15.149062427955595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.48919629065557</c:v>
+                  <c:v>79.412764862687823</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14.398841118126548</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.2667125449356016</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>57.456433439932809</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.301530167111544</c:v>
+                  <c:v>24.842986622356733</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.591796732876094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,7 +2111,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$3:$O$4</c:f>
+              <c:f>pivot_table!$O$3:$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1927,53 +2123,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$5:$O$11</c:f>
+              <c:f>pivot_table!$O$5:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>33.099897917499376</c:v>
+                  <c:v>21.289541646251951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.349965399874613</c:v>
+                  <c:v>70.444511040532973</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20.618919932941605</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.11884034903414387</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.367146267379425</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.51052282244671</c:v>
+                  <c:v>49.833018560478315</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.918026406072823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,7 +2186,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$3:$P$4</c:f>
+              <c:f>pivot_table!$P$3:$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1996,53 +2198,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$5:$P$11</c:f>
+              <c:f>pivot_table!$P$5:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>91.818063334162417</c:v>
+                  <c:v>20.647992617467668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.18987877448345</c:v>
+                  <c:v>88.246524242118767</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20.219396113398169</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7.8454076769342906</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.093750893671292</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.357100678135701</c:v>
+                  <c:v>1.1075160938428974</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.891697416931397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,7 +2261,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$3:$Q$4</c:f>
+              <c:f>pivot_table!$Q$3:$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2065,53 +2273,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$5:$Q$11</c:f>
+              <c:f>pivot_table!$Q$5:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45.505737069959515</c:v>
+                  <c:v>28.359379274859077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.509711970603455</c:v>
+                  <c:v>30.548486999316047</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>30.828455281002732</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>45.713405535605268</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.256723962792002</c:v>
+                  <c:v>5.2519333869331835</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.3860717107814153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.360373512849645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2122,7 +2336,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$3:$R$4</c:f>
+              <c:f>pivot_table!$R$3:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2134,53 +2348,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$5:$R$11</c:f>
+              <c:f>pivot_table!$R$5:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44.888598509631429</c:v>
+                  <c:v>16.494289678769391</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.854460407721373</c:v>
+                  <c:v>20.679297288591435</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>17.897339665145083</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.120348771128874</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.13498435349954</c:v>
+                  <c:v>0.58438396034807827</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>34.894692850003274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.867736111220562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2191,7 +2411,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$3:$S$4</c:f>
+              <c:f>pivot_table!$S$3:$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2203,53 +2423,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$5:$S$11</c:f>
+              <c:f>pivot_table!$S$5:$S$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>34.466131734330176</c:v>
+                  <c:v>12.197463690148847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.100864438310644</c:v>
+                  <c:v>3.3010869705704105</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>13.396380027129029</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.337080047258929</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.57064171714315</c:v>
+                  <c:v>7.1679103735721617</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.71532252741415281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.869359381618182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,7 +2486,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$3:$T$4</c:f>
+              <c:f>pivot_table!$T$3:$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2272,53 +2498,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$5:$T$11</c:f>
+              <c:f>pivot_table!$T$5:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45.581036645446105</c:v>
+                  <c:v>20.629335513530368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.156827328438101</c:v>
+                  <c:v>19.783768285130098</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>21.825447901145246</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7.1906267120766305</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.606541854061575</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.416223414630633</c:v>
+                  <c:v>16.265918958113367</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.044647544933845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2329,7 +2561,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$3:$U$4</c:f>
+              <c:f>pivot_table!$U$3:$U$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2341,53 +2573,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$5:$U$11</c:f>
+              <c:f>pivot_table!$U$5:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>33.803548203777147</c:v>
+                  <c:v>15.879130054054535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.528977456006199</c:v>
+                  <c:v>16.397968281625364</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16.532984426004848</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>12.096436586125648</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>59.427696978736755</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.328031089138808</c:v>
+                  <c:v>6.1277567964330153</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.914907819081643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0504212866212583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2398,7 +2636,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$3:$V$4</c:f>
+              <c:f>pivot_table!$V$3:$V$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2410,53 +2648,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$5:$V$11</c:f>
+              <c:f>pivot_table!$V$5:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>46.970490074553382</c:v>
+                  <c:v>21.666318967646482</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.218018764770822</c:v>
+                  <c:v>21.919233462932077</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>23.233506920342549</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5.6731656342567938</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>65.349124150215872</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.501271524004487</c:v>
+                  <c:v>0.72284503184347759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.68987092034002</c:v>
+                  <c:v>51.749991555757234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.905370494599239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2467,7 +2711,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$3:$W$4</c:f>
+              <c:f>pivot_table!$W$3:$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2479,53 +2723,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$5:$W$11</c:f>
+              <c:f>pivot_table!$W$5:$W$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>38.599398790677938</c:v>
+                  <c:v>30.416361688492422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.234932845439712</c:v>
+                  <c:v>9.40946941758164</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>30.419362568390962</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>36.919945355860385</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.869569991357125</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.949501757953293</c:v>
+                  <c:v>25.956013500573818</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12.711952437276308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0234908734642794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2536,7 +2786,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$3:$X$4</c:f>
+              <c:f>pivot_table!$X$3:$X$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2548,53 +2798,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$5:$X$11</c:f>
+              <c:f>pivot_table!$X$5:$X$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>33.309839048670277</c:v>
+                  <c:v>17.393509529530082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.702875304320564</c:v>
+                  <c:v>9.942162181304937</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>17.275862475761826</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>29.347908244687215</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.541020768631853</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.219439604675017</c:v>
+                  <c:v>0.19030209428367861</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.312790936353458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,7 +2861,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$3:$Y$4</c:f>
+              <c:f>pivot_table!$Y$3:$Y$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2617,53 +2873,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$5:$Y$11</c:f>
+              <c:f>pivot_table!$Y$5:$Y$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>72.350677127679035</c:v>
+                  <c:v>19.867158731464794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.938647289454881</c:v>
+                  <c:v>61.406290108092755</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20.904263663073607</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.12618481873976073</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.807381454763444</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.504603252477395</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>38.419871991494659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.867743243534552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,7 +2936,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$3:$Z$4</c:f>
+              <c:f>pivot_table!$Z$3:$Z$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2686,53 +2948,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>pivot_table!$A$5:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>nrtl</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>cre</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>domestic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>floor plan</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>international</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nrtl</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>tax exempt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rtl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$5:$Z$11</c:f>
+              <c:f>pivot_table!$Z$5:$Z$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>61.495986483296342</c:v>
+                  <c:v>13.333448995353535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.457885112286492</c:v>
+                  <c:v>23.688308236455178</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>13.210930997952186</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>15.204709147364415</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.464690902896507</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.101371925947394</c:v>
+                  <c:v>10.547626602908167</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.19328461309997547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.573613164907073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,11 +3015,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="313323520"/>
-        <c:axId val="313325056"/>
+        <c:axId val="323109248"/>
+        <c:axId val="323110784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313323520"/>
+        <c:axId val="323109248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +3028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="313325056"/>
+        <c:crossAx val="323110784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2768,7 +3036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313325056"/>
+        <c:axId val="323110784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +3047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="313323520"/>
+        <c:crossAx val="323109248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2793,6 +3061,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2848,13 +3121,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sung.Bill" refreshedDate="43291.573514930555" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="150">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sung.Bill" refreshedDate="43298.70125208333" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="175">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:D151" sheet="raw_data_by_prod"/>
+    <worksheetSource ref="B1:D176" sheet="raw_data_by_prod"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="cpr" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="93.827485512601754"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="88.246524242118767"/>
     </cacheField>
     <cacheField name="period" numFmtId="0">
       <sharedItems count="25">
@@ -2886,13 +3159,14 @@
       </sharedItems>
     </cacheField>
     <cacheField name="segmentation" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems count="7">
         <s v="nrtl"/>
         <s v="cre"/>
         <s v="domestic"/>
         <s v="tax exempt"/>
         <s v="floor plan"/>
         <s v="international"/>
+        <s v="rtl"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2905,19 +3179,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="150">
-  <r>
-    <n v="23.030536488499664"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="175">
+  <r>
+    <n v="19.502692612406069"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="4.9302377117090845"/>
+    <n v="5.1483153751608723"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="22.348144321330921"/>
+    <n v="20.540992206046273"/>
     <x v="0"/>
     <x v="2"/>
   </r>
@@ -2932,22 +3206,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="62.683493068740304"/>
+    <n v="1.7731217707165792"/>
     <x v="0"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="21.453143110038965"/>
+    <n v="11.717505570530662"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="16.925321735023868"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="41.005487279574737"/>
+    <n v="19.909482849338467"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="17.524185049039165"/>
+    <n v="17.167412783791857"/>
     <x v="1"/>
     <x v="2"/>
   </r>
@@ -2962,22 +3241,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="85.162452760268906"/>
+    <n v="0.37293257978195937"/>
     <x v="1"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="32.205071116918546"/>
+    <n v="29.664922129122296"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="24.118772831037493"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="80.333992551022277"/>
+    <n v="43.059715942611774"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="28.338094587120043"/>
+    <n v="23.256459476379753"/>
     <x v="2"/>
     <x v="2"/>
   </r>
@@ -2992,22 +3276,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="93.827485512601754"/>
+    <n v="68.55565397139442"/>
     <x v="2"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="19.79356785866052"/>
+    <n v="7.3751461682736057"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="16.701788458528966"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="72.796362330600928"/>
+    <n v="44.038764840081392"/>
     <x v="3"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="18.148837141352214"/>
+    <n v="16.667883302573749"/>
     <x v="3"/>
     <x v="2"/>
   </r>
@@ -3022,27 +3311,32 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="48.821917598895425"/>
+    <n v="13.4339046824701"/>
     <x v="3"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="28.622516783557074"/>
+    <n v="13.002733001561984"/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="23.87634310778639"/>
     <x v="4"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="57.350156993243282"/>
+    <n v="10.261672271669365"/>
     <x v="4"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="27.569007301341141"/>
+    <n v="25.970119331407993"/>
     <x v="4"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="10.122983280702623"/>
+    <n v="17.535232040128012"/>
     <x v="4"/>
     <x v="3"/>
   </r>
@@ -3052,22 +3346,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="78.193330064058429"/>
+    <n v="4.5995057689752201"/>
     <x v="4"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="19.789261420474237"/>
+    <n v="16.639184170471921"/>
+    <x v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="15.961513790875447"/>
     <x v="5"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="65.010259858862682"/>
+    <n v="24.30210251193461"/>
     <x v="5"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="18.662587223820381"/>
+    <n v="16.56462114808398"/>
     <x v="5"/>
     <x v="2"/>
   </r>
@@ -3082,22 +3381,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="55.445511345011454"/>
+    <n v="17.540239803145262"/>
     <x v="5"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="15.277213045533633"/>
+    <n v="12.574113048858671"/>
+    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="11.929861750488225"/>
     <x v="6"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="53.210897222918916"/>
+    <n v="4.0510019122429686"/>
     <x v="6"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="12.849412882348144"/>
+    <n v="11.786930934599106"/>
     <x v="6"/>
     <x v="2"/>
   </r>
@@ -3112,22 +3416,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="74.522106523949034"/>
+    <n v="41.824847965624869"/>
     <x v="6"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="21.986044575167263"/>
+    <n v="18.163298277577432"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="19.300197741464309"/>
     <x v="7"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="53.141735793829461"/>
+    <n v="3.4326270631910183"/>
     <x v="7"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="21.844596477578715"/>
+    <n v="21.00691223558545"/>
     <x v="7"/>
     <x v="2"/>
   </r>
@@ -3142,22 +3451,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="46.00765760009029"/>
+    <n v="4.7260572214232299"/>
     <x v="7"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="21.042289092877375"/>
+    <n v="18.855233603148402"/>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="25.020916026514318"/>
     <x v="8"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="73.14746443014829"/>
+    <n v="48.453499480799891"/>
     <x v="8"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="15.851617512357674"/>
+    <n v="24.333042621552682"/>
     <x v="8"/>
     <x v="2"/>
   </r>
@@ -3172,22 +3486,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="88.36333052063344"/>
+    <n v="52.349210776334289"/>
     <x v="8"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="20.944855948726715"/>
+    <n v="11.901274396734751"/>
+    <x v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="24.682207197903772"/>
     <x v="9"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="65.429489422729489"/>
+    <n v="36.011694456545307"/>
     <x v="9"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="17.928909001277681"/>
+    <n v="26.375232450391074"/>
     <x v="9"/>
     <x v="2"/>
   </r>
@@ -3202,27 +3521,32 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="78.577349130930799"/>
+    <n v="1.9247375759180674"/>
     <x v="9"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="21.822293039889416"/>
+    <n v="9.948429034516959"/>
+    <x v="9"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="17.692325314265368"/>
     <x v="10"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="91.040377728725502"/>
+    <n v="66.465523508337753"/>
     <x v="10"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="19.29408520333774"/>
+    <n v="17.412621581097156"/>
     <x v="10"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="10.314984285900364"/>
+    <n v="12.265414044725221"/>
     <x v="10"/>
     <x v="3"/>
   </r>
@@ -3232,22 +3556,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="62.985294665712267"/>
+    <n v="34.133644301569618"/>
     <x v="10"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="17.470594484341074"/>
+    <n v="11.164331390793425"/>
+    <x v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="14.323396614397311"/>
     <x v="11"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="75.946562427530466"/>
+    <n v="3.155240282297489"/>
     <x v="11"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="14.516687087441527"/>
+    <n v="13.774565959186935"/>
     <x v="11"/>
     <x v="2"/>
   </r>
@@ -3262,22 +3591,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="44.2493094171857"/>
+    <n v="3.2735962022161558"/>
     <x v="11"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="17.301530167111544"/>
+    <n v="17.639339507457386"/>
+    <x v="11"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="15.149062427955595"/>
     <x v="12"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="74.697045327942206"/>
+    <n v="79.412764862687823"/>
     <x v="12"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="15.48919629065557"/>
+    <n v="14.398841118126548"/>
     <x v="12"/>
     <x v="2"/>
   </r>
@@ -3292,22 +3626,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="57.456433439932809"/>
+    <n v="24.842986622356733"/>
     <x v="12"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="22.51052282244671"/>
+    <n v="13.591796732876094"/>
+    <x v="12"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="21.289541646251951"/>
     <x v="13"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="33.099897917499376"/>
+    <n v="70.444511040532973"/>
     <x v="13"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="20.349965399874613"/>
+    <n v="20.618919932941605"/>
     <x v="13"/>
     <x v="2"/>
   </r>
@@ -3322,22 +3661,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="79.367146267379425"/>
+    <n v="49.833018560478315"/>
     <x v="13"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="22.357100678135701"/>
+    <n v="10.918026406072823"/>
+    <x v="13"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="20.647992617467668"/>
     <x v="14"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="91.818063334162417"/>
+    <n v="88.246524242118767"/>
     <x v="14"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="20.18987877448345"/>
+    <n v="20.219396113398169"/>
     <x v="14"/>
     <x v="2"/>
   </r>
@@ -3352,22 +3696,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="43.093750893671292"/>
+    <n v="1.1075160938428974"/>
     <x v="14"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="23.256723962792002"/>
+    <n v="30.891697416931397"/>
+    <x v="14"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="28.359379274859077"/>
     <x v="15"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="45.505737069959515"/>
+    <n v="30.548486999316047"/>
     <x v="15"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="23.509711970603455"/>
+    <n v="30.828455281002732"/>
     <x v="15"/>
     <x v="2"/>
   </r>
@@ -3382,22 +3731,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="45.713405535605268"/>
+    <n v="5.2519333869331835"/>
     <x v="15"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="17.13498435349954"/>
+    <n v="13.360373512849645"/>
+    <x v="15"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="16.494289678769391"/>
     <x v="16"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="44.888598509631429"/>
+    <n v="20.679297288591435"/>
     <x v="16"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="17.854460407721373"/>
+    <n v="17.897339665145083"/>
     <x v="16"/>
     <x v="2"/>
   </r>
@@ -3412,22 +3766,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="12.120348771128874"/>
+    <n v="0.58438396034807827"/>
     <x v="16"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="13.57064171714315"/>
+    <n v="13.867736111220562"/>
+    <x v="16"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="12.197463690148847"/>
     <x v="17"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="34.466131734330176"/>
+    <n v="3.3010869705704105"/>
     <x v="17"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="14.100864438310644"/>
+    <n v="13.396380027129029"/>
     <x v="17"/>
     <x v="2"/>
   </r>
@@ -3442,22 +3801,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="36.337080047258929"/>
+    <n v="7.1679103735721617"/>
     <x v="17"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="22.416223414630633"/>
+    <n v="47.869359381618182"/>
+    <x v="17"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="20.629335513530368"/>
     <x v="18"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="45.581036645446105"/>
+    <n v="19.783768285130098"/>
     <x v="18"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="23.156827328438101"/>
+    <n v="21.825447901145246"/>
     <x v="18"/>
     <x v="2"/>
   </r>
@@ -3472,22 +3836,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="28.606541854061575"/>
+    <n v="16.265918958113367"/>
     <x v="18"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="19.328031089138808"/>
+    <n v="17.044647544933845"/>
+    <x v="18"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="15.879130054054535"/>
     <x v="19"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="33.803548203777147"/>
+    <n v="16.397968281625364"/>
     <x v="19"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="17.528977456006199"/>
+    <n v="16.532984426004848"/>
     <x v="19"/>
     <x v="2"/>
   </r>
@@ -3502,27 +3871,32 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="59.427696978736755"/>
+    <n v="6.1277567964330153"/>
     <x v="19"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="26.501271524004487"/>
+    <n v="9.0504212866212583"/>
+    <x v="19"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="21.666318967646482"/>
     <x v="20"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="46.970490074553382"/>
+    <n v="21.919233462932077"/>
     <x v="20"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="25.218018764770822"/>
+    <n v="23.233506920342549"/>
     <x v="20"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="48.68987092034002"/>
+    <n v="51.749991555757234"/>
     <x v="20"/>
     <x v="3"/>
   </r>
@@ -3532,22 +3906,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="65.349124150215872"/>
+    <n v="0.72284503184347759"/>
     <x v="20"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="32.949501757953293"/>
+    <n v="19.905370494599239"/>
+    <x v="20"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="30.416361688492422"/>
     <x v="21"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="38.599398790677938"/>
+    <n v="9.40946941758164"/>
     <x v="21"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="30.234932845439712"/>
+    <n v="30.419362568390962"/>
     <x v="21"/>
     <x v="2"/>
   </r>
@@ -3562,22 +3941,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="68.869569991357125"/>
+    <n v="25.956013500573818"/>
     <x v="21"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="21.219439604675017"/>
+    <n v="9.0234908734642794"/>
+    <x v="21"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="17.393509529530082"/>
     <x v="22"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="33.309839048670277"/>
+    <n v="9.942162181304937"/>
     <x v="22"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="17.702875304320564"/>
+    <n v="17.275862475761826"/>
     <x v="22"/>
     <x v="2"/>
   </r>
@@ -3592,22 +3976,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="71.541020768631853"/>
+    <n v="0.19030209428367861"/>
     <x v="22"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="23.504603252477395"/>
+    <n v="39.312790936353458"/>
+    <x v="22"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="19.867158731464794"/>
     <x v="23"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="72.350677127679035"/>
+    <n v="61.406290108092755"/>
     <x v="23"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="20.938647289454881"/>
+    <n v="20.904263663073607"/>
     <x v="23"/>
     <x v="2"/>
   </r>
@@ -3622,22 +4011,27 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="71.807381454763444"/>
+    <n v="0"/>
     <x v="23"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="15.101371925947394"/>
+    <n v="17.867743243534552"/>
+    <x v="23"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="13.333448995353535"/>
     <x v="24"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="61.495986483296342"/>
+    <n v="23.688308236455178"/>
     <x v="24"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="11.457885112286492"/>
+    <n v="13.210930997952186"/>
     <x v="24"/>
     <x v="2"/>
   </r>
@@ -3652,16 +4046,21 @@
     <x v="4"/>
   </r>
   <r>
-    <n v="68.464690902896507"/>
+    <n v="10.547626602908167"/>
     <x v="24"/>
     <x v="5"/>
+  </r>
+  <r>
+    <n v="13.573613164907073"/>
+    <x v="24"/>
+    <x v="6"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:AA11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:AA12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
@@ -3695,13 +4094,14 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="8">
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="0"/>
         <item x="3"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3709,7 +4109,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -3727,6 +4127,9 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -4431,7 +4834,7 @@
   <dimension ref="A3:AA90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,498 +4879,498 @@
       <c r="A4" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="5">
-        <v>4.9302377117090845</v>
+        <v>19.502692612406069</v>
       </c>
       <c r="C5" s="5">
-        <v>41.005487279574737</v>
+        <v>16.925321735023868</v>
       </c>
       <c r="D5" s="5">
-        <v>80.333992551022277</v>
+        <v>24.118772831037493</v>
       </c>
       <c r="E5" s="5">
-        <v>72.796362330600928</v>
+        <v>16.701788458528966</v>
       </c>
       <c r="F5" s="5">
-        <v>57.350156993243282</v>
+        <v>23.87634310778639</v>
       </c>
       <c r="G5" s="5">
-        <v>65.010259858862682</v>
+        <v>15.961513790875447</v>
       </c>
       <c r="H5" s="5">
-        <v>53.210897222918916</v>
+        <v>11.929861750488225</v>
       </c>
       <c r="I5" s="5">
-        <v>53.141735793829461</v>
+        <v>19.300197741464309</v>
       </c>
       <c r="J5" s="5">
-        <v>73.14746443014829</v>
+        <v>25.020916026514318</v>
       </c>
       <c r="K5" s="5">
-        <v>65.429489422729489</v>
+        <v>24.682207197903772</v>
       </c>
       <c r="L5" s="5">
-        <v>91.040377728725502</v>
+        <v>17.692325314265368</v>
       </c>
       <c r="M5" s="5">
-        <v>75.946562427530466</v>
+        <v>14.323396614397311</v>
       </c>
       <c r="N5" s="5">
-        <v>74.697045327942206</v>
+        <v>15.149062427955595</v>
       </c>
       <c r="O5" s="5">
-        <v>33.099897917499376</v>
+        <v>21.289541646251951</v>
       </c>
       <c r="P5" s="5">
-        <v>91.818063334162417</v>
+        <v>20.647992617467668</v>
       </c>
       <c r="Q5" s="5">
-        <v>45.505737069959515</v>
+        <v>28.359379274859077</v>
       </c>
       <c r="R5" s="5">
-        <v>44.888598509631429</v>
+        <v>16.494289678769391</v>
       </c>
       <c r="S5" s="5">
-        <v>34.466131734330176</v>
+        <v>12.197463690148847</v>
       </c>
       <c r="T5" s="5">
-        <v>45.581036645446105</v>
+        <v>20.629335513530368</v>
       </c>
       <c r="U5" s="5">
-        <v>33.803548203777147</v>
+        <v>15.879130054054535</v>
       </c>
       <c r="V5" s="5">
-        <v>46.970490074553382</v>
+        <v>21.666318967646482</v>
       </c>
       <c r="W5" s="5">
-        <v>38.599398790677938</v>
+        <v>30.416361688492422</v>
       </c>
       <c r="X5" s="5">
-        <v>33.309839048670277</v>
+        <v>17.393509529530082</v>
       </c>
       <c r="Y5" s="5">
-        <v>72.350677127679035</v>
+        <v>19.867158731464794</v>
       </c>
       <c r="Z5" s="5">
-        <v>61.495986483296342</v>
+        <v>13.333448995353535</v>
       </c>
       <c r="AA5" s="5">
-        <v>1389.9294740185205</v>
+        <v>483.35832999621618</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="5">
-        <v>22.348144321330921</v>
+        <v>5.1483153751608723</v>
       </c>
       <c r="C6" s="5">
-        <v>17.524185049039165</v>
+        <v>19.909482849338467</v>
       </c>
       <c r="D6" s="5">
-        <v>28.338094587120043</v>
+        <v>43.059715942611774</v>
       </c>
       <c r="E6" s="5">
-        <v>18.148837141352214</v>
+        <v>44.038764840081392</v>
       </c>
       <c r="F6" s="5">
-        <v>27.569007301341141</v>
+        <v>10.261672271669365</v>
       </c>
       <c r="G6" s="5">
-        <v>18.662587223820381</v>
+        <v>24.30210251193461</v>
       </c>
       <c r="H6" s="5">
-        <v>12.849412882348144</v>
+        <v>4.0510019122429686</v>
       </c>
       <c r="I6" s="5">
-        <v>21.844596477578715</v>
+        <v>3.4326270631910183</v>
       </c>
       <c r="J6" s="5">
-        <v>15.851617512357674</v>
+        <v>48.453499480799891</v>
       </c>
       <c r="K6" s="5">
-        <v>17.928909001277681</v>
+        <v>36.011694456545307</v>
       </c>
       <c r="L6" s="5">
-        <v>19.29408520333774</v>
+        <v>66.465523508337753</v>
       </c>
       <c r="M6" s="5">
-        <v>14.516687087441527</v>
+        <v>3.155240282297489</v>
       </c>
       <c r="N6" s="5">
-        <v>15.48919629065557</v>
+        <v>79.412764862687823</v>
       </c>
       <c r="O6" s="5">
-        <v>20.349965399874613</v>
+        <v>70.444511040532973</v>
       </c>
       <c r="P6" s="5">
-        <v>20.18987877448345</v>
+        <v>88.246524242118767</v>
       </c>
       <c r="Q6" s="5">
-        <v>23.509711970603455</v>
+        <v>30.548486999316047</v>
       </c>
       <c r="R6" s="5">
-        <v>17.854460407721373</v>
+        <v>20.679297288591435</v>
       </c>
       <c r="S6" s="5">
-        <v>14.100864438310644</v>
+        <v>3.3010869705704105</v>
       </c>
       <c r="T6" s="5">
-        <v>23.156827328438101</v>
+        <v>19.783768285130098</v>
       </c>
       <c r="U6" s="5">
-        <v>17.528977456006199</v>
+        <v>16.397968281625364</v>
       </c>
       <c r="V6" s="5">
-        <v>25.218018764770822</v>
+        <v>21.919233462932077</v>
       </c>
       <c r="W6" s="5">
-        <v>30.234932845439712</v>
+        <v>9.40946941758164</v>
       </c>
       <c r="X6" s="5">
-        <v>17.702875304320564</v>
+        <v>9.942162181304937</v>
       </c>
       <c r="Y6" s="5">
-        <v>20.938647289454881</v>
+        <v>61.406290108092755</v>
       </c>
       <c r="Z6" s="5">
-        <v>11.457885112286492</v>
+        <v>23.688308236455178</v>
       </c>
       <c r="AA6" s="5">
-        <v>492.60840517071119</v>
+        <v>763.46951187115053</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B7" s="5">
-        <v>14.30995432067772</v>
+        <v>20.540992206046273</v>
       </c>
       <c r="C7" s="5">
-        <v>20.452807172218158</v>
+        <v>17.167412783791857</v>
       </c>
       <c r="D7" s="5">
-        <v>3.8163651935195331</v>
+        <v>23.256459476379753</v>
       </c>
       <c r="E7" s="5">
-        <v>12.776029238625009</v>
+        <v>16.667883302573749</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>25.970119331407993</v>
       </c>
       <c r="G7" s="5">
-        <v>3.3601561110406575</v>
+        <v>16.56462114808398</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>11.786930934599106</v>
       </c>
       <c r="I7" s="5">
-        <v>2.1647361784181141</v>
+        <v>21.00691223558545</v>
       </c>
       <c r="J7" s="5">
-        <v>16.312974154448746</v>
+        <v>24.333042621552682</v>
       </c>
       <c r="K7" s="5">
-        <v>6.2562975281925892</v>
+        <v>26.375232450391074</v>
       </c>
       <c r="L7" s="5">
-        <v>0</v>
+        <v>17.412621581097156</v>
       </c>
       <c r="M7" s="5">
-        <v>28.431728052179029</v>
+        <v>13.774565959186935</v>
       </c>
       <c r="N7" s="5">
-        <v>3.2667125449356016</v>
+        <v>14.398841118126548</v>
       </c>
       <c r="O7" s="5">
-        <v>0.11884034903414387</v>
+        <v>20.618919932941605</v>
       </c>
       <c r="P7" s="5">
-        <v>7.8454076769342906</v>
+        <v>20.219396113398169</v>
       </c>
       <c r="Q7" s="5">
-        <v>0</v>
+        <v>30.828455281002732</v>
       </c>
       <c r="R7" s="5">
-        <v>0</v>
+        <v>17.897339665145083</v>
       </c>
       <c r="S7" s="5">
-        <v>0</v>
+        <v>13.396380027129029</v>
       </c>
       <c r="T7" s="5">
-        <v>7.1906267120766305</v>
+        <v>21.825447901145246</v>
       </c>
       <c r="U7" s="5">
-        <v>12.096436586125648</v>
+        <v>16.532984426004848</v>
       </c>
       <c r="V7" s="5">
-        <v>5.6731656342567938</v>
+        <v>23.233506920342549</v>
       </c>
       <c r="W7" s="5">
-        <v>36.919945355860385</v>
+        <v>30.419362568390962</v>
       </c>
       <c r="X7" s="5">
-        <v>29.347908244687215</v>
+        <v>17.275862475761826</v>
       </c>
       <c r="Y7" s="5">
-        <v>0.12618481873976073</v>
+        <v>20.904263663073607</v>
       </c>
       <c r="Z7" s="5">
-        <v>15.204709147364415</v>
+        <v>13.210930997952186</v>
       </c>
       <c r="AA7" s="5">
-        <v>225.67098501933444</v>
+        <v>495.61848512111038</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="5">
-        <v>62.683493068740304</v>
+        <v>14.30995432067772</v>
       </c>
       <c r="C8" s="5">
-        <v>85.162452760268906</v>
+        <v>20.452807172218158</v>
       </c>
       <c r="D8" s="5">
-        <v>93.827485512601754</v>
+        <v>3.8163651935195331</v>
       </c>
       <c r="E8" s="5">
-        <v>48.821917598895425</v>
+        <v>12.776029238625009</v>
       </c>
       <c r="F8" s="5">
-        <v>78.193330064058429</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>55.445511345011454</v>
+        <v>3.3601561110406575</v>
       </c>
       <c r="H8" s="5">
-        <v>74.522106523949034</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
-        <v>46.00765760009029</v>
+        <v>2.1647361784181141</v>
       </c>
       <c r="J8" s="5">
-        <v>88.36333052063344</v>
+        <v>16.312974154448746</v>
       </c>
       <c r="K8" s="5">
-        <v>78.577349130930799</v>
+        <v>6.2562975281925892</v>
       </c>
       <c r="L8" s="5">
-        <v>62.985294665712267</v>
+        <v>0</v>
       </c>
       <c r="M8" s="5">
-        <v>44.2493094171857</v>
+        <v>28.431728052179029</v>
       </c>
       <c r="N8" s="5">
-        <v>57.456433439932809</v>
+        <v>3.2667125449356016</v>
       </c>
       <c r="O8" s="5">
-        <v>79.367146267379425</v>
+        <v>0.11884034903414387</v>
       </c>
       <c r="P8" s="5">
-        <v>43.093750893671292</v>
+        <v>7.8454076769342906</v>
       </c>
       <c r="Q8" s="5">
-        <v>45.713405535605268</v>
+        <v>0</v>
       </c>
       <c r="R8" s="5">
-        <v>12.120348771128874</v>
+        <v>0</v>
       </c>
       <c r="S8" s="5">
-        <v>36.337080047258929</v>
+        <v>0</v>
       </c>
       <c r="T8" s="5">
-        <v>28.606541854061575</v>
+        <v>7.1906267120766305</v>
       </c>
       <c r="U8" s="5">
-        <v>59.427696978736755</v>
+        <v>12.096436586125648</v>
       </c>
       <c r="V8" s="5">
-        <v>65.349124150215872</v>
+        <v>5.6731656342567938</v>
       </c>
       <c r="W8" s="5">
-        <v>68.869569991357125</v>
+        <v>36.919945355860385</v>
       </c>
       <c r="X8" s="5">
-        <v>71.541020768631853</v>
+        <v>29.347908244687215</v>
       </c>
       <c r="Y8" s="5">
-        <v>71.807381454763444</v>
+        <v>0.12618481873976073</v>
       </c>
       <c r="Z8" s="5">
-        <v>68.464690902896507</v>
+        <v>15.204709147364415</v>
       </c>
       <c r="AA8" s="5">
-        <v>1526.9934292637176</v>
+        <v>225.67098501933444</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B9" s="5">
-        <v>23.030536488499664</v>
+        <v>1.7731217707165792</v>
       </c>
       <c r="C9" s="5">
-        <v>21.453143110038965</v>
+        <v>0.37293257978195937</v>
       </c>
       <c r="D9" s="5">
-        <v>32.205071116918546</v>
+        <v>68.55565397139442</v>
       </c>
       <c r="E9" s="5">
-        <v>19.79356785866052</v>
+        <v>13.4339046824701</v>
       </c>
       <c r="F9" s="5">
-        <v>28.622516783557074</v>
+        <v>4.5995057689752201</v>
       </c>
       <c r="G9" s="5">
-        <v>19.789261420474237</v>
+        <v>17.540239803145262</v>
       </c>
       <c r="H9" s="5">
-        <v>15.277213045533633</v>
+        <v>41.824847965624869</v>
       </c>
       <c r="I9" s="5">
-        <v>21.986044575167263</v>
+        <v>4.7260572214232299</v>
       </c>
       <c r="J9" s="5">
-        <v>21.042289092877375</v>
+        <v>52.349210776334289</v>
       </c>
       <c r="K9" s="5">
-        <v>20.944855948726715</v>
+        <v>1.9247375759180674</v>
       </c>
       <c r="L9" s="5">
-        <v>21.822293039889416</v>
+        <v>34.133644301569618</v>
       </c>
       <c r="M9" s="5">
-        <v>17.470594484341074</v>
+        <v>3.2735962022161558</v>
       </c>
       <c r="N9" s="5">
-        <v>17.301530167111544</v>
+        <v>24.842986622356733</v>
       </c>
       <c r="O9" s="5">
-        <v>22.51052282244671</v>
+        <v>49.833018560478315</v>
       </c>
       <c r="P9" s="5">
-        <v>22.357100678135701</v>
+        <v>1.1075160938428974</v>
       </c>
       <c r="Q9" s="5">
-        <v>23.256723962792002</v>
+        <v>5.2519333869331835</v>
       </c>
       <c r="R9" s="5">
-        <v>17.13498435349954</v>
+        <v>0.58438396034807827</v>
       </c>
       <c r="S9" s="5">
-        <v>13.57064171714315</v>
+        <v>7.1679103735721617</v>
       </c>
       <c r="T9" s="5">
-        <v>22.416223414630633</v>
+        <v>16.265918958113367</v>
       </c>
       <c r="U9" s="5">
-        <v>19.328031089138808</v>
+        <v>6.1277567964330153</v>
       </c>
       <c r="V9" s="5">
-        <v>26.501271524004487</v>
+        <v>0.72284503184347759</v>
       </c>
       <c r="W9" s="5">
-        <v>32.949501757953293</v>
+        <v>25.956013500573818</v>
       </c>
       <c r="X9" s="5">
-        <v>21.219439604675017</v>
+        <v>0.19030209428367861</v>
       </c>
       <c r="Y9" s="5">
-        <v>23.504603252477395</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="5">
-        <v>15.101371925947394</v>
+        <v>10.547626602908167</v>
       </c>
       <c r="AA9" s="5">
-        <v>540.58933323464009</v>
+        <v>393.10566460125665</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -4987,7 +5390,7 @@
         <v>15.264783086445977</v>
       </c>
       <c r="F10" s="5">
-        <v>10.122983280702623</v>
+        <v>17.535232040128012</v>
       </c>
       <c r="G10" s="5">
         <v>25.348253011134858</v>
@@ -5005,7 +5408,7 @@
         <v>10.68923386285271</v>
       </c>
       <c r="L10" s="5">
-        <v>10.314984285900364</v>
+        <v>12.265414044725221</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -5035,7 +5438,7 @@
         <v>10.914907819081643</v>
       </c>
       <c r="V10" s="5">
-        <v>48.68987092034002</v>
+        <v>51.749991555757234</v>
       </c>
       <c r="W10" s="5">
         <v>12.711952437276308</v>
@@ -5050,90 +5453,173 @@
         <v>0.19328461309997547</v>
       </c>
       <c r="AA10" s="5">
-        <v>243.21929727573229</v>
+        <v>255.64209642939971</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="5">
+        <v>11.717505570530662</v>
+      </c>
+      <c r="C11" s="5">
+        <v>29.664922129122296</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7.3751461682736057</v>
+      </c>
+      <c r="E11" s="5">
+        <v>13.002733001561984</v>
+      </c>
+      <c r="F11" s="5">
+        <v>16.639184170471921</v>
+      </c>
+      <c r="G11" s="5">
+        <v>12.574113048858671</v>
+      </c>
+      <c r="H11" s="5">
+        <v>18.163298277577432</v>
+      </c>
+      <c r="I11" s="5">
+        <v>18.855233603148402</v>
+      </c>
+      <c r="J11" s="5">
+        <v>11.901274396734751</v>
+      </c>
+      <c r="K11" s="5">
+        <v>9.948429034516959</v>
+      </c>
+      <c r="L11" s="5">
+        <v>11.164331390793425</v>
+      </c>
+      <c r="M11" s="5">
+        <v>17.639339507457386</v>
+      </c>
+      <c r="N11" s="5">
+        <v>13.591796732876094</v>
+      </c>
+      <c r="O11" s="5">
+        <v>10.918026406072823</v>
+      </c>
+      <c r="P11" s="5">
+        <v>30.891697416931397</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>13.360373512849645</v>
+      </c>
+      <c r="R11" s="5">
+        <v>13.867736111220562</v>
+      </c>
+      <c r="S11" s="5">
+        <v>47.869359381618182</v>
+      </c>
+      <c r="T11" s="5">
+        <v>17.044647544933845</v>
+      </c>
+      <c r="U11" s="5">
+        <v>9.0504212866212583</v>
+      </c>
+      <c r="V11" s="5">
+        <v>19.905370494599239</v>
+      </c>
+      <c r="W11" s="5">
+        <v>9.0234908734642794</v>
+      </c>
+      <c r="X11" s="5">
+        <v>39.312790936353458</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>17.867743243534552</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>13.573613164907073</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>434.92257740502987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="5">
-        <v>127.30236591095769</v>
-      </c>
-      <c r="C11" s="5">
-        <v>193.07832785797075</v>
-      </c>
-      <c r="D11" s="5">
-        <v>238.52100896118213</v>
-      </c>
-      <c r="E11" s="5">
-        <v>187.60149725458007</v>
-      </c>
-      <c r="F11" s="5">
-        <v>201.85799442290252</v>
-      </c>
-      <c r="G11" s="5">
-        <v>187.61602897034427</v>
-      </c>
-      <c r="H11" s="5">
-        <v>155.85962967474973</v>
-      </c>
-      <c r="I11" s="5">
-        <v>156.21760301745735</v>
-      </c>
-      <c r="J11" s="5">
-        <v>214.71767571046553</v>
-      </c>
-      <c r="K11" s="5">
-        <v>199.82613489470998</v>
-      </c>
-      <c r="L11" s="5">
-        <v>205.45703492356529</v>
-      </c>
-      <c r="M11" s="5">
-        <v>180.61488146867777</v>
-      </c>
-      <c r="N11" s="5">
-        <v>168.21091777057774</v>
-      </c>
-      <c r="O11" s="5">
-        <v>155.44637275623427</v>
-      </c>
-      <c r="P11" s="5">
-        <v>185.30420135738714</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>144.37165024974163</v>
-      </c>
-      <c r="R11" s="5">
-        <v>126.8930848919845</v>
-      </c>
-      <c r="S11" s="5">
-        <v>99.190040464457056</v>
-      </c>
-      <c r="T11" s="5">
-        <v>126.95125595465305</v>
-      </c>
-      <c r="U11" s="5">
-        <v>153.09959813286619</v>
-      </c>
-      <c r="V11" s="5">
-        <v>218.40194106814135</v>
-      </c>
-      <c r="W11" s="5">
-        <v>220.28530117856477</v>
-      </c>
-      <c r="X11" s="5">
-        <v>173.12108297098493</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>227.14736593460916</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>171.91792818489114</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>4419.0109239826561</v>
+      <c r="B12" s="5">
+        <v>72.992581855538162</v>
+      </c>
+      <c r="C12" s="5">
+        <v>111.97313173610743</v>
+      </c>
+      <c r="D12" s="5">
+        <v>170.18211358321656</v>
+      </c>
+      <c r="E12" s="5">
+        <v>131.88588661028717</v>
+      </c>
+      <c r="F12" s="5">
+        <v>98.882056690438901</v>
+      </c>
+      <c r="G12" s="5">
+        <v>115.65099942507348</v>
+      </c>
+      <c r="H12" s="5">
+        <v>87.755940840532617</v>
+      </c>
+      <c r="I12" s="5">
+        <v>80.558596435604059</v>
+      </c>
+      <c r="J12" s="5">
+        <v>178.37091745638466</v>
+      </c>
+      <c r="K12" s="5">
+        <v>115.88783210632049</v>
+      </c>
+      <c r="L12" s="5">
+        <v>159.13386014078853</v>
+      </c>
+      <c r="M12" s="5">
+        <v>80.597866617734297</v>
+      </c>
+      <c r="N12" s="5">
+        <v>150.66216430893843</v>
+      </c>
+      <c r="O12" s="5">
+        <v>173.22285793531179</v>
+      </c>
+      <c r="P12" s="5">
+        <v>168.95853416069318</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>114.7347001657421</v>
+      </c>
+      <c r="R12" s="5">
+        <v>104.41773955407783</v>
+      </c>
+      <c r="S12" s="5">
+        <v>84.647522970452783</v>
+      </c>
+      <c r="T12" s="5">
+        <v>102.73974491492956</v>
+      </c>
+      <c r="U12" s="5">
+        <v>86.999605249946313</v>
+      </c>
+      <c r="V12" s="5">
+        <v>144.87043206737786</v>
+      </c>
+      <c r="W12" s="5">
+        <v>154.8565958416398</v>
+      </c>
+      <c r="X12" s="5">
+        <v>113.46253546192119</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>158.59151255640012</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>89.751921758040524</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>3051.787650443498</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -5241,7 +5727,7 @@
         <v>163</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -5249,7 +5735,7 @@
         <v>164</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="D45" s="3"/>
       <c r="L45" s="3"/>
@@ -5423,7 +5909,7 @@
         <v>165</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5524,7 +6010,7 @@
         <v>173</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -5601,7 +6087,7 @@
         <v>174</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -5862,7 +6348,7 @@
         <v>175</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="E76" s="8"/>
     </row>
@@ -5891,7 +6377,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
         <v>197</v>
@@ -5914,7 +6400,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C79" t="s">
         <v>197</v>
@@ -5937,7 +6423,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C80" t="s">
         <v>197</v>
@@ -5960,7 +6446,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C81" t="s">
         <v>197</v>
@@ -5983,7 +6469,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C82" t="s">
         <v>197</v>
@@ -6006,7 +6492,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C83" t="s">
         <v>197</v>
@@ -6029,7 +6515,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C84" t="s">
         <v>197</v>
@@ -6052,7 +6538,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C85" t="s">
         <v>197</v>
@@ -6075,7 +6561,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C86" t="s">
         <v>197</v>
@@ -6098,7 +6584,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C87" t="s">
         <v>197</v>
@@ -6124,7 +6610,7 @@
         <v>176</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="E88" s="8"/>
     </row>
@@ -6153,7 +6639,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C90" t="s">
         <v>197</v>
@@ -6183,2126 +6669,2948 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D151"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>23.030536488499664</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="11">
+        <v>19.502692612406069</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>4.9302377117090845</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="11">
+        <v>5.1483153751608723</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>22.348144321330921</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="11">
+        <v>20.540992206046273</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>14.30995432067772</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>62.683493068740304</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="11">
+        <v>1.7731217707165792</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>21.453143110038965</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="11">
+        <v>11.717505570530662</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11">
+        <v>16.925321735023868</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>41.005487279574737</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11">
+        <v>19.909482849338467</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>17.524185049039165</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11">
+        <v>17.167412783791857</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11">
         <v>7.4802524868308184</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="11">
         <v>20.452807172218158</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>85.162452760268906</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.37293257978195937</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>32.205071116918546</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="11">
+        <v>29.664922129122296</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="11">
+        <v>24.118772831037493</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>80.333992551022277</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11">
+        <v>43.059715942611774</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>28.338094587120043</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="11">
+        <v>23.256459476379753</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11">
         <v>3.8163651935195331</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>93.827485512601754</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="11">
+        <v>68.55565397139442</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>19.79356785866052</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="11">
+        <v>7.3751461682736057</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="11">
+        <v>16.701788458528966</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>72.796362330600928</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44.038764840081392</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>18.148837141352214</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="11">
+        <v>16.667883302573749</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="11">
         <v>15.264783086445977</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="11">
         <v>12.776029238625009</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D27" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>48.821917598895425</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="11">
+        <v>13.4339046824701</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>28.622516783557074</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="11">
+        <v>13.002733001561984</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="11">
+        <v>23.87634310778639</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D30" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>57.350156993243282</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="11">
+        <v>10.261672271669365</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D31" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>27.569007301341141</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="11">
+        <v>25.970119331407993</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D32" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>10.122983280702623</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="11">
+        <v>17.535232040128012</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D33" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="11">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D34" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>78.193330064058429</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="11">
+        <v>4.5995057689752201</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D35" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>19.789261420474237</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="11">
+        <v>16.639184170471921</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="11">
+        <v>15.961513790875447</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D37" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>65.010259858862682</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="11">
+        <v>24.30210251193461</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D38" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>18.662587223820381</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="11">
+        <v>16.56462114808398</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D39" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="11">
         <v>25.348253011134858</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D40" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="11">
         <v>3.3601561110406575</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D41" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>55.445511345011454</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="11">
+        <v>17.540239803145262</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D42" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>15.277213045533633</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="11">
+        <v>12.574113048858671</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="11">
+        <v>11.929861750488225</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D44" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>53.210897222918916</v>
-      </c>
-      <c r="C39" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="11">
+        <v>4.0510019122429686</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D45" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>12.849412882348144</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="11">
+        <v>11.786930934599106</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D46" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="11">
         <v>0</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C47" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D47" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="11">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C48" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D48" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>74.522106523949034</v>
-      </c>
-      <c r="C43" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="11">
+        <v>41.824847965624869</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D49" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>21.986044575167263</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="11">
+        <v>18.163298277577432</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="11">
+        <v>19.300197741464309</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D51" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>53.141735793829461</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3.4326270631910183</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D52" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46">
-        <v>21.844596477578715</v>
-      </c>
-      <c r="C46" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="11">
+        <v>21.00691223558545</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D53" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="11">
         <v>11.072832392373533</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C54" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D54" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="11">
         <v>2.1647361784181141</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C55" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D55" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49">
-        <v>46.00765760009029</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="11">
+        <v>4.7260572214232299</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D56" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50">
-        <v>21.042289092877375</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="11">
+        <v>18.855233603148402</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="11">
+        <v>25.020916026514318</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D58" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51">
-        <v>73.14746443014829</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="11">
+        <v>48.453499480799891</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D59" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52">
-        <v>15.851617512357674</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="11">
+        <v>24.333042621552682</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D60" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="11">
         <v>0</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C61" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D61" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="11">
         <v>16.312974154448746</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C62" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D62" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55">
-        <v>88.36333052063344</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="11">
+        <v>52.349210776334289</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D63" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56">
-        <v>20.944855948726715</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="11">
+        <v>11.901274396734751</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="11">
+        <v>24.682207197903772</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D65" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57">
-        <v>65.429489422729489</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="11">
+        <v>36.011694456545307</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D66" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58">
-        <v>17.928909001277681</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="11">
+        <v>26.375232450391074</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D67" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="11">
         <v>10.68923386285271</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C68" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D68" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="11">
         <v>6.2562975281925892</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C69" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D69" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>78.577349130930799</v>
-      </c>
-      <c r="C61" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="11">
+        <v>1.9247375759180674</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D70" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>21.822293039889416</v>
-      </c>
-      <c r="C62" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="11">
+        <v>9.948429034516959</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="11">
+        <v>17.692325314265368</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D72" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63">
-        <v>91.040377728725502</v>
-      </c>
-      <c r="C63" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="11">
+        <v>66.465523508337753</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D73" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64">
-        <v>19.29408520333774</v>
-      </c>
-      <c r="C64" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="11">
+        <v>17.412621581097156</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D74" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65">
-        <v>10.314984285900364</v>
-      </c>
-      <c r="C65" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="11">
+        <v>12.265414044725221</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D75" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="11">
         <v>0</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C76" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D76" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67">
-        <v>62.985294665712267</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="11">
+        <v>34.133644301569618</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D77" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68">
-        <v>17.470594484341074</v>
-      </c>
-      <c r="C68" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="11">
+        <v>11.164331390793425</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="11">
+        <v>14.323396614397311</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D79" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69">
-        <v>75.946562427530466</v>
-      </c>
-      <c r="C69" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="11">
+        <v>3.155240282297489</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D80" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70">
-        <v>14.516687087441527</v>
-      </c>
-      <c r="C70" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="11">
+        <v>13.774565959186935</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D81" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="11">
         <v>0</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C82" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D82" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="11">
         <v>28.431728052179029</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C83" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D83" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73">
-        <v>44.2493094171857</v>
-      </c>
-      <c r="C73" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="11">
+        <v>3.2735962022161558</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D84" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74">
-        <v>17.301530167111544</v>
-      </c>
-      <c r="C74" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="11">
+        <v>17.639339507457386</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="11">
+        <v>15.149062427955595</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D86" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75">
-        <v>74.697045327942206</v>
-      </c>
-      <c r="C75" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="11">
+        <v>79.412764862687823</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D87" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76">
-        <v>15.48919629065557</v>
-      </c>
-      <c r="C76" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="11">
+        <v>14.398841118126548</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D88" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="11">
         <v>0</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C89" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D89" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="11">
         <v>3.2667125449356016</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C90" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D90" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79">
-        <v>57.456433439932809</v>
-      </c>
-      <c r="C79" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="11">
+        <v>24.842986622356733</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D91" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80">
-        <v>22.51052282244671</v>
-      </c>
-      <c r="C80" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="11">
+        <v>13.591796732876094</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="11">
+        <v>21.289541646251951</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D93" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81">
-        <v>33.099897917499376</v>
-      </c>
-      <c r="C81" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="11">
+        <v>70.444511040532973</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D94" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82">
-        <v>20.349965399874613</v>
-      </c>
-      <c r="C82" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="11">
+        <v>20.618919932941605</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D95" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="11">
         <v>0</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C96" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D96" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="11">
         <v>0.11884034903414387</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C97" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D97" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85">
-        <v>79.367146267379425</v>
-      </c>
-      <c r="C85" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="11">
+        <v>49.833018560478315</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D98" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86">
-        <v>22.357100678135701</v>
-      </c>
-      <c r="C86" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="11">
+        <v>10.918026406072823</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="11">
+        <v>20.647992617467668</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D100" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87">
-        <v>91.818063334162417</v>
-      </c>
-      <c r="C87" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="11">
+        <v>88.246524242118767</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D101" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88">
-        <v>20.18987877448345</v>
-      </c>
-      <c r="C88" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="11">
+        <v>20.219396113398169</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D102" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="11">
         <v>0</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C103" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D103" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="11">
         <v>7.8454076769342906</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C104" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D104" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91">
-        <v>43.093750893671292</v>
-      </c>
-      <c r="C91" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="11">
+        <v>1.1075160938428974</v>
+      </c>
+      <c r="C105" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D105" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92">
-        <v>23.256723962792002</v>
-      </c>
-      <c r="C92" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="11">
+        <v>30.891697416931397</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="11">
+        <v>28.359379274859077</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D107" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93">
-        <v>45.505737069959515</v>
-      </c>
-      <c r="C93" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="11">
+        <v>30.548486999316047</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D108" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94">
-        <v>23.509711970603455</v>
-      </c>
-      <c r="C94" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="11">
+        <v>30.828455281002732</v>
+      </c>
+      <c r="C109" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D109" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="11">
         <v>6.3860717107814153</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C110" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D110" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="11">
         <v>0</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C111" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D111" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97">
-        <v>45.713405535605268</v>
-      </c>
-      <c r="C97" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="11">
+        <v>5.2519333869331835</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D112" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98">
-        <v>17.13498435349954</v>
-      </c>
-      <c r="C98" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="11">
+        <v>13.360373512849645</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="11">
+        <v>16.494289678769391</v>
+      </c>
+      <c r="C114" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D114" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99">
-        <v>44.888598509631429</v>
-      </c>
-      <c r="C99" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="11">
+        <v>20.679297288591435</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D115" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100">
-        <v>17.854460407721373</v>
-      </c>
-      <c r="C100" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="11">
+        <v>17.897339665145083</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D116" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="11">
         <v>34.894692850003274</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C117" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D117" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="11">
         <v>0</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C118" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D118" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103">
-        <v>12.120348771128874</v>
-      </c>
-      <c r="C103" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="11">
+        <v>0.58438396034807827</v>
+      </c>
+      <c r="C119" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D119" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104">
-        <v>13.57064171714315</v>
-      </c>
-      <c r="C104" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="11">
+        <v>13.867736111220562</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="11">
+        <v>12.197463690148847</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D121" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105">
-        <v>34.466131734330176</v>
-      </c>
-      <c r="C105" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="11">
+        <v>3.3010869705704105</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D122" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106">
-        <v>14.100864438310644</v>
-      </c>
-      <c r="C106" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="11">
+        <v>13.396380027129029</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D123" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="11">
         <v>0.71532252741415281</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C124" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D124" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="11">
         <v>0</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C125" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D125" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109">
-        <v>36.337080047258929</v>
-      </c>
-      <c r="C109" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="11">
+        <v>7.1679103735721617</v>
+      </c>
+      <c r="C126" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D126" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110">
-        <v>22.416223414630633</v>
-      </c>
-      <c r="C110" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="11">
+        <v>47.869359381618182</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="11">
+        <v>20.629335513530368</v>
+      </c>
+      <c r="C128" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D128" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111">
-        <v>45.581036645446105</v>
-      </c>
-      <c r="C111" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="11">
+        <v>19.783768285130098</v>
+      </c>
+      <c r="C129" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D129" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112">
-        <v>23.156827328438101</v>
-      </c>
-      <c r="C112" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="11">
+        <v>21.825447901145246</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D130" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="11">
         <v>0</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C131" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D131" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="11">
         <v>7.1906267120766305</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C132" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D132" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115">
-        <v>28.606541854061575</v>
-      </c>
-      <c r="C115" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="11">
+        <v>16.265918958113367</v>
+      </c>
+      <c r="C133" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D133" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>117</v>
-      </c>
-      <c r="B116">
-        <v>19.328031089138808</v>
-      </c>
-      <c r="C116" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="11">
+        <v>17.044647544933845</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="11">
+        <v>15.879130054054535</v>
+      </c>
+      <c r="C135" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D135" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117">
-        <v>33.803548203777147</v>
-      </c>
-      <c r="C117" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="11">
+        <v>16.397968281625364</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D136" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118">
-        <v>17.528977456006199</v>
-      </c>
-      <c r="C118" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="11">
+        <v>16.532984426004848</v>
+      </c>
+      <c r="C137" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D137" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="11">
         <v>10.914907819081643</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C138" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D138" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="11">
         <v>12.096436586125648</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C139" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D139" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121">
-        <v>59.427696978736755</v>
-      </c>
-      <c r="C121" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="11">
+        <v>6.1277567964330153</v>
+      </c>
+      <c r="C140" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D140" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122">
-        <v>26.501271524004487</v>
-      </c>
-      <c r="C122" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="11">
+        <v>9.0504212866212583</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="11">
+        <v>21.666318967646482</v>
+      </c>
+      <c r="C142" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D142" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123">
-        <v>46.970490074553382</v>
-      </c>
-      <c r="C123" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="11">
+        <v>21.919233462932077</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D143" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>125</v>
-      </c>
-      <c r="B124">
-        <v>25.218018764770822</v>
-      </c>
-      <c r="C124" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="11">
+        <v>23.233506920342549</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D144" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>126</v>
-      </c>
-      <c r="B125">
-        <v>48.68987092034002</v>
-      </c>
-      <c r="C125" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="11">
+        <v>51.749991555757234</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D145" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="11">
         <v>5.6731656342567938</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C146" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D146" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127">
-        <v>65.349124150215872</v>
-      </c>
-      <c r="C127" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" s="11">
+        <v>0.72284503184347759</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D147" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128">
-        <v>32.949501757953293</v>
-      </c>
-      <c r="C128" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="11">
+        <v>19.905370494599239</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="11">
+        <v>30.416361688492422</v>
+      </c>
+      <c r="C149" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D149" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129">
-        <v>38.599398790677938</v>
-      </c>
-      <c r="C129" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="11">
+        <v>9.40946941758164</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D150" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130">
-        <v>30.234932845439712</v>
-      </c>
-      <c r="C130" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="11">
+        <v>30.419362568390962</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D151" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B152" s="11">
         <v>12.711952437276308</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C152" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D152" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>133</v>
-      </c>
-      <c r="B132">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B153" s="11">
         <v>36.919945355860385</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C153" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D153" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>134</v>
-      </c>
-      <c r="B133">
-        <v>68.869569991357125</v>
-      </c>
-      <c r="C133" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B154" s="11">
+        <v>25.956013500573818</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D154" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>135</v>
-      </c>
-      <c r="B134">
-        <v>21.219439604675017</v>
-      </c>
-      <c r="C134" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B155" s="11">
+        <v>9.0234908734642794</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B156" s="11">
+        <v>17.393509529530082</v>
+      </c>
+      <c r="C156" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D156" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135">
-        <v>33.309839048670277</v>
-      </c>
-      <c r="C135" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B157" s="11">
+        <v>9.942162181304937</v>
+      </c>
+      <c r="C157" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D157" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136">
-        <v>17.702875304320564</v>
-      </c>
-      <c r="C136" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B158" s="11">
+        <v>17.275862475761826</v>
+      </c>
+      <c r="C158" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D158" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B159" s="11">
         <v>0</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C159" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D159" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B160" s="11">
         <v>29.347908244687215</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C160" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D160" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>140</v>
-      </c>
-      <c r="B139">
-        <v>71.541020768631853</v>
-      </c>
-      <c r="C139" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B161" s="11">
+        <v>0.19030209428367861</v>
+      </c>
+      <c r="C161" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D161" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140">
-        <v>23.504603252477395</v>
-      </c>
-      <c r="C140" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B162" s="11">
+        <v>39.312790936353458</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B163" s="11">
+        <v>19.867158731464794</v>
+      </c>
+      <c r="C163" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D163" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>142</v>
-      </c>
-      <c r="B141">
-        <v>72.350677127679035</v>
-      </c>
-      <c r="C141" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B164" s="11">
+        <v>61.406290108092755</v>
+      </c>
+      <c r="C164" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D164" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142">
-        <v>20.938647289454881</v>
-      </c>
-      <c r="C142" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B165" s="11">
+        <v>20.904263663073607</v>
+      </c>
+      <c r="C165" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D165" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B166" s="11">
         <v>38.419871991494659</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C166" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D166" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B167" s="11">
         <v>0.12618481873976073</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C167" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D167" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>146</v>
-      </c>
-      <c r="B145">
-        <v>71.807381454763444</v>
-      </c>
-      <c r="C145" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B168" s="11">
+        <v>0</v>
+      </c>
+      <c r="C168" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D168" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146">
-        <v>15.101371925947394</v>
-      </c>
-      <c r="C146" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B169" s="11">
+        <v>17.867743243534552</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B170" s="11">
+        <v>13.333448995353535</v>
+      </c>
+      <c r="C170" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D170" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147">
-        <v>61.495986483296342</v>
-      </c>
-      <c r="C147" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B171" s="11">
+        <v>23.688308236455178</v>
+      </c>
+      <c r="C171" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D171" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>149</v>
-      </c>
-      <c r="B148">
-        <v>11.457885112286492</v>
-      </c>
-      <c r="C148" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B172" s="11">
+        <v>13.210930997952186</v>
+      </c>
+      <c r="C172" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D172" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B173" s="11">
         <v>0.19328461309997547</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C173" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D173" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>151</v>
-      </c>
-      <c r="B150">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B174" s="11">
         <v>15.204709147364415</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C174" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D174" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>152</v>
-      </c>
-      <c r="B151">
-        <v>68.464690902896507</v>
-      </c>
-      <c r="C151" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B175" s="11">
+        <v>10.547626602908167</v>
+      </c>
+      <c r="C175" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D175" s="11" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B176" s="11">
+        <v>13.573613164907073</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>289335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="8">
+        <v>85500000</v>
+      </c>
+      <c r="F5" s="10">
+        <v>72206367.260000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="F6" s="10">
+        <v>9646557.9900000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="8">
+        <v>11000000</v>
+      </c>
+      <c r="F7" s="10">
+        <v>429696.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6000000</v>
+      </c>
+      <c r="F9" s="10">
+        <v>182426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5344843.49</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5344843.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="8">
+        <v>116151.3</v>
+      </c>
+      <c r="F13" s="10">
+        <v>116151.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="8">
+        <v>6875000</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="8">
+        <v>830653.79</v>
+      </c>
+      <c r="F20" s="8">
+        <v>267888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="8">
+        <v>200000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="8">
+        <v>475000</v>
+      </c>
+      <c r="F22" s="8">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" s="8">
+        <v>37470124.810000002</v>
+      </c>
+      <c r="F25" s="8">
+        <v>8816793.8900000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" s="8">
+        <v>28330690.100000001</v>
+      </c>
+      <c r="F26" s="8">
+        <v>17029177.280000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="8">
+        <v>405000</v>
+      </c>
+      <c r="F29" s="8">
+        <v>24236.6</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
 </file>